--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98283C9A-A9DD-4D97-A9F8-9EA4751BB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB6D2D-4D47-445C-BDDE-0FA69E2E1147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="9105" yWindow="8610" windowWidth="21600" windowHeight="11385" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:V757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FD302-41A5-4ECA-8089-22219A8208A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496486-235B-4B65-A5B8-9C3C2B348E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="ExhaustiveSearch" sheetId="2" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="697">
   <si>
     <t>LT1</t>
   </si>
@@ -1415,6 +1415,741 @@
   </si>
   <si>
     <t>Time taken to solve:  0.2</t>
+  </si>
+  <si>
+    <t>C1.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [0, 1, 2], [0, 5, 3], [1, 2, 2], [2, 3, 2], [3, 0, 2], [4, 0, 3], [5, 4, 3]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 2 - 3 - 0</t>
+  </si>
+  <si>
+    <t>Launch 3 : 0 - 5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 97.5, 97.5, 0</t>
+  </si>
+  <si>
+    <t>[[0, 1, 1], [0, 4, 2], [1, 3, 1], [2, 0, 1], [3, 2, 1], [4, 5, 2], [5, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 1 - 3 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 198.39999999999998, 72.39999999999999, 126.0</t>
+  </si>
+  <si>
+    <t>C2.csv</t>
+  </si>
+  <si>
+    <t>[[0, 1, 3], [0, 3, 2], [0, 4, 1], [1, 0, 3], [2, 0, 2], [3, 2, 2], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 3 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 315.6, 132.6, 183.0</t>
+  </si>
+  <si>
+    <t>[[0, 3, 2], [0, 4, 1], [1, 2, 2], [2, 0, 2], [3, 1, 2], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 3 - 1 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 601.4, 72.39999999999999, 529.0</t>
+  </si>
+  <si>
+    <t>C3.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 3], [0, 1, 2], [0, 3, 1], [1, 2, 2], [2, 0, 2], [3, 4, 1], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 79.9, 79.9, 0</t>
+  </si>
+  <si>
+    <t>[[0, 3, 1], [0, 5, 2], [1, 2, 1], [2, 0, 1], [3, 1, 1], [4, 0, 2], [5, 4, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 3 - 1 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 287.2, 86.2, 201.0</t>
+  </si>
+  <si>
+    <t>C4.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 2], [0, 2, 1], [0, 3, 3], [1, 0, 3], [2, 4, 1], [3, 1, 3], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 2 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Launch 3 : 0 - 3 - 1 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 322.8, 82.80000000000001, 240.0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 580.2, 86.2, 494.0</t>
+  </si>
+  <si>
+    <t>C5.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [0, 3, 2], [0, 4, 3], [1, 2, 2], [2, 0, 2], [3, 1, 2], [4, 5, 3], [5, 0, 3]]</t>
+  </si>
+  <si>
+    <t>Launch 3 : 0 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 292.7, 91.7, 201.0</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [0, 1, 2], [1, 3, 2], [2, 5, 2], [3, 2, 2], [4, 0, 2], [5, 4, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 3 - 2 - 5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 29.6, 29.6, 0</t>
+  </si>
+  <si>
+    <t>C6.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution set: </t>
+  </si>
+  <si>
+    <t>[[0, 0, 3], [0, 3, 2], [0, 4, 1], [1, 2, 2], [2, 0, 2], [3, 1, 2], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 567.7, 91.7, 476.0</t>
+  </si>
+  <si>
+    <t>[[0, 1, 1], [0, 2, 2], [1, 3, 1], [2, 4, 2], [3, 0, 1], [4, 5, 2], [5, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 1 - 3 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 2 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 34.2, 34.2, 0</t>
+  </si>
+  <si>
+    <t>C7.csv</t>
+  </si>
+  <si>
+    <t>[[0, 1, 2], [0, 4, 1], [1, 3, 2], [2, 0, 2], [3, 2, 2], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 3 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 75.60000000000001, 69.60000000000001, 6.0</t>
+  </si>
+  <si>
+    <t>[[0, 2, 3], [0, 4, 1], [0, 5, 2], [1, 0, 3], [2, 3, 3], [3, 1, 3], [4, 6, 1], [5, 7, 2], [6, 0, 1], [7, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 225.19999999999953, 96.2, 128.99999999999955</t>
+  </si>
+  <si>
+    <t>C8.csv</t>
+  </si>
+  <si>
+    <t>[[0, 1, 1], [0, 2, 2], [1, 3, 1], [2, 0, 2], [3, 4, 1], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 1 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 229.8, 82.80000000000001, 147.0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 485.2, 96.2, 389.0</t>
+  </si>
+  <si>
+    <t>C9.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 3], [0, 1, 2], [0, 3, 1], [1, 4, 2], [2, 0, 1], [3, 2, 1], [4, 5, 2], [5, 6, 2], [6, 7, 2], [7, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 3 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 4 - 5 - 6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 267.2, 103.2, 164.0</t>
+  </si>
+  <si>
+    <t>[[0, 3, 2], [0, 4, 1], [1, 0, 2], [2, 1, 2], [3, 2, 2], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 3 - 2 - 1 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 212.2, 86.2, 126.0</t>
+  </si>
+  <si>
+    <t>C10.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 3], [0, 1, 1], [0, 3, 2], [1, 4, 1], [2, 0, 2], [3, 2, 2], [4, 5, 1], [5, 6, 1], [6, 7, 1], [7, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 1 - 4 - 5 - 6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 517.2, 103.2, 414.0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 452.2, 86.2, 366.0</t>
+  </si>
+  <si>
+    <t>C11.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [0, 0, 2], [0, 1, 3], [1, 3, 3], [2, 4, 3], [3, 2, 3], [4, 5, 3], [5, 0, 3]]</t>
+  </si>
+  <si>
+    <t>Launch 3 : 0 - 1 - 3 - 2 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 53.6, 50.6, 3.0</t>
+  </si>
+  <si>
+    <t>[[0, 1, 1], [0, 3, 2], [1, 2, 1], [2, 0, 1], [3, 4, 2], [4, 5, 2], [5, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 1 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 225.2, 109.19999999999999, 116.0</t>
+  </si>
+  <si>
+    <t>C12.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 3], [0, 1, 2], [0, 3, 1], [1, 0, 2], [2, 4, 1], [3, 2, 1], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 3 - 2 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 178.1, 78.1, 100.0</t>
+  </si>
+  <si>
+    <t>[[0, 1, 2], [0, 3, 1], [1, 2, 2], [2, 0, 2], [3, 4, 1], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 685.2, 109.19999999999999, 576.0</t>
+  </si>
+  <si>
+    <t>C13.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 2], [0, 0, 3], [0, 2, 1], [1, 3, 1], [2, 1, 1], [3, 5, 1], [4, 0, 1], [5, 4, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 2 - 1 - 3 - 5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 210.8, 71.80000000000001, 139.0</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [0, 1, 2], [1, 2, 2], [2, 3, 2], [3, 4, 2], [4, 5, 2], [5, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 2 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 17.4, 17.4, 0</t>
+  </si>
+  <si>
+    <t>C14.csv</t>
+  </si>
+  <si>
+    <t>[[0, 0, 2], [0, 1, 3], [0, 2, 1], [1, 0, 3], [2, 3, 1], [3, 4, 1], [4, 5, 1], [5, 0, 1]]</t>
+  </si>
+  <si>
+    <t>Launch 1 : 0 - 2 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 463.6, 122.60000000000001, 341.0</t>
+  </si>
+  <si>
+    <t>[[0, 1, 2], [0, 2, 1], [1, 3, 2], [2, 0, 1], [3, 4, 2], [4, 5, 2], [5, 0, 2]]</t>
+  </si>
+  <si>
+    <t>Launch 2 : 0 - 1 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Objective function cost (Total, Fuel, Penalty): 28.000000000000004, 28.000000000000004, 0</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 7, 1, 5, 6, 2, 3]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0032796639584056417</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Launch 3: 0 - 2 - 3 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 304.9092872570197, 158.0, 146.90928725701963</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  25.040760278701782</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 5, 7, 6, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0032995491803862816</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 3 - 1 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 303.071706263499, 72.4, 230.671706263499</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  22.44468379020691</t>
+  </si>
+  <si>
+    <t>Best individual: [6, 4, 5, 7, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0030422598142447336</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 3 - 2 - 1 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 328.70302375810013, 97.5, 231.20302375810013</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  24.289922952651978</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 2, 7, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.001016246332843281</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 984.0133909287263, 122.4, 861.6133909287262</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  24.698328733444214</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 2, 5, 6, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.011494252873563218</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 1 - 3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 87.0, 87.0, 0.0</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  20.404691219329834</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 4, 5, 6, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0030146840506935636</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 331.7097192224632, 86.2, 245.50971922246322</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  22.642731189727783</t>
+  </si>
+  <si>
+    <t>Best individual: [6, 3, 1, 4, 7, 2, 5]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0031816210874822067</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 3 - 1 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 314.30518358531356, 83.1, 231.20518358531353</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  20.558542490005493</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 3, 1, 2, 6, 4, 5]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0017390285328383404</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 3 - 1 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 575.0336933045363, 86.2, 488.8336933045364</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  24.515949249267578</t>
+  </si>
+  <si>
+    <t>Best individual: [3, 2, 7, 4, 5, 6, 1]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0032900229875256243</t>
+  </si>
+  <si>
+    <t>Launch 3: 0 - 1 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 303.9492440604753, 148.5, 155.44924406047528</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  28.79618501663208</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 1, 3, 6, 2, 4, 5]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.029239766081871343</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 3 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 34.2, 34.2, 0.0</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  22.72811532020569</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 6, 3, 1, 2, 7, 5]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0017492054904651299</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 3 - 1 - 2 - 0</t>
+  </si>
+  <si>
+    <t>Launch 3: 0 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 571.688120950324, 115.2, 456.48812095032406</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  27.777568578720093</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 4, 5, 6, 2, 3, 7]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.022564232523685133</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 44.31792656587473, 36.4, 7.917926565874723</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  39.164034366607666</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 6, 1, 2, 3, 5, 7]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.013021712228597127</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 1 - 2 - 3 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 76.79481641468692, 72.0, 4.79481641468692</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  28.974759340286255</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 5, 7, 9, 2, 6, 8, 1, 3]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.003558595776569374</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 4 - 5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 6 - 0</t>
+  </si>
+  <si>
+    <t>Launch 3: 0 - 1 - 3 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 281.0097192224623, 146.5, 134.5097192224623</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  49.409968852996826</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 3, 7, 2, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.00460726774096606</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 217.04838012959024, 82.80000000000001, 134.24838012959026</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  32.08388566970825</t>
+  </si>
+  <si>
+    <t>Best individual: [8, 4, 6, 5, 7, 9, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0012298221512484688</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 4 - 6 - 5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 813.1257019438444, 95.4, 717.7257019438445</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  61.102237701416016</t>
+  </si>
+  <si>
+    <t>Best individual: [2, 4, 8, 3, 7, 9, 1, 5, 6]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.002425116031064533</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 2 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 412.3514038876888, 167.9, 244.4514038876888</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  56.91739559173584</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0048203257415805525</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 207.45485961123174, 86.2, 121.25485961123172</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  35.212480783462524</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 6, 4, 5, 8, 3, 7, 9, 2]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0011490789747336636</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 6 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 870.2622030237587, 179.8, 690.4622030237587</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  69.98810029029846</t>
+  </si>
+  <si>
+    <t>Best individual: [4, 5, 7, 6, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.00201381748463322</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 496.56933045356476, 86.2, 410.36933045356477</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  39.63862085342407</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 6, 7, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.012804097311139562</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 78.10000000000001, 78.10000000000001, 0.0</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  49.70696139335632</t>
+  </si>
+  <si>
+    <t>Best individual: [3, 2, 6, 1, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.003972966664836058</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 1 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 251.70107991360766, 113.19999999999999, 138.50107991360767</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  23.901150703430176</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 1, 5, 6, 3, 2, 4]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.005536105451449682</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 3 - 2 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 180.63239740820697, 83.60000000000001, 97.03239740820698</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  20.97841477394104</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 2, 5, 7, 6, 3, 4]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0014657622628583417</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 682.23887688985, 120.19999999999999, 562.0388768898499</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  23.380698919296265</t>
+  </si>
+  <si>
+    <t>Best individual: [2, 3, 6, 1, 7, 5, 4]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0021725441101531507</t>
+  </si>
+  <si>
+    <t>Launch 3: 0 - 5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 460.2898488120944, 178.40000000000003, 281.88984881209444</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  54.57060408592224</t>
+  </si>
+  <si>
+    <t>Best individual: [6, 2, 3, 4, 5, 7, 1]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.054945054945054944</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 2 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 18.2, 18.2, 0.0</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  17.678284406661987</t>
+  </si>
+  <si>
+    <t>Best individual: [1, 5, 7, 6, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.0015632712954353166</t>
+  </si>
+  <si>
+    <t>Launch 2: 0 - 2 - 3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 639.6842332613386, 124.60000000000001, 515.0842332613386</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  41.12678527832031</t>
+  </si>
+  <si>
+    <t>Best individual: [7, 1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>Fitness: 0.03892326316497413</t>
+  </si>
+  <si>
+    <t>Launch 1: 0 - 1 - 2 - 3 - 4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>Minimum costs (Total, Fuel, Penalty): 25.691576673866074, 17.4, 8.291576673866075</t>
+  </si>
+  <si>
+    <t>Time taken to run GA:  25.65095615386963</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +2329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1650,6 +2385,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1970,24 +2707,24 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -2021,7 +2758,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2798,7 @@
       </c>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2839,7 @@
       <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2140,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2216,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2254,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2292,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -2406,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
@@ -2444,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2542,7 +3279,7 @@
       </c>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -2564,7 +3301,7 @@
       </c>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +3323,7 @@
       </c>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -2608,7 +3345,7 @@
       </c>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +3367,7 @@
       </c>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
@@ -2652,7 +3389,7 @@
       </c>
       <c r="M20" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2667,7 +3404,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2682,7 +3419,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2697,7 +3434,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2712,7 +3449,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2727,7 +3464,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2742,7 +3479,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2757,7 +3494,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2772,7 +3509,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2787,7 +3524,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2802,7 +3539,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2817,7 +3554,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2832,7 +3569,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2847,7 +3584,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2862,7 +3599,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2877,7 +3614,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2892,13 +3629,13 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
     </row>
   </sheetData>
@@ -2908,40 +3645,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
-  <dimension ref="A1:X158"/>
+  <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="90.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="90.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -2984,7 +3721,7 @@
       <c r="V1" s="23"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -3046,7 +3783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3843,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +3902,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
@@ -3224,7 +3961,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +4020,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +4079,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +4138,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +4197,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +4256,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>28</v>
       </c>
@@ -3578,7 +4315,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>31</v>
       </c>
@@ -3637,7 +4374,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +4433,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>9</v>
       </c>
@@ -3755,7 +4492,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>38</v>
       </c>
@@ -3814,7 +4551,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>41</v>
       </c>
@@ -3873,7 +4610,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
@@ -3932,7 +4669,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>46</v>
       </c>
@@ -3991,7 +4728,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>49</v>
       </c>
@@ -4050,7 +4787,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
@@ -4109,7 +4846,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>170</v>
       </c>
@@ -4122,21 +4859,41 @@
       <c r="I21" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="J21" s="47">
+        <v>5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
       <c r="P21" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="8"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q21" s="47">
+        <v>5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="S21" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="T21" s="7">
+        <v>5</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="V21" s="54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>171</v>
       </c>
@@ -4149,21 +4906,41 @@
       <c r="I22" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="10"/>
+      <c r="J22" s="18">
+        <v>5</v>
+      </c>
+      <c r="K22" s="19">
+        <v>3</v>
+      </c>
+      <c r="L22" s="19">
+        <v>5</v>
+      </c>
+      <c r="M22" s="10">
+        <v>2</v>
+      </c>
       <c r="P22" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q22" s="18">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T22" s="19">
+        <v>5</v>
+      </c>
+      <c r="U22" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V22" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>172</v>
       </c>
@@ -4176,21 +4953,41 @@
       <c r="I23" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="10"/>
+      <c r="J23" s="18">
+        <v>5</v>
+      </c>
+      <c r="K23" s="19">
+        <v>2</v>
+      </c>
+      <c r="L23" s="19">
+        <v>5</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2</v>
+      </c>
       <c r="P23" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q23" s="18">
+        <v>5</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T23" s="19">
+        <v>5</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="V23" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>173</v>
       </c>
@@ -4203,21 +5000,41 @@
       <c r="I24" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="10"/>
+      <c r="J24" s="18">
+        <v>5</v>
+      </c>
+      <c r="K24" s="19">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="10">
+        <v>2</v>
+      </c>
       <c r="P24" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q24" s="18">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T24" s="4">
+        <v>5</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="V24" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>174</v>
       </c>
@@ -4230,21 +5047,41 @@
       <c r="I25" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="10"/>
+      <c r="J25" s="18">
+        <v>5</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
       <c r="P25" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q25" s="18">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="V25" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>175</v>
       </c>
@@ -4257,21 +5094,41 @@
       <c r="I26" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="10"/>
+      <c r="J26" s="18">
+        <v>5</v>
+      </c>
+      <c r="K26" s="19">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
+      <c r="M26" s="10">
+        <v>2</v>
+      </c>
       <c r="P26" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q26" s="18">
+        <v>5</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="S26" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T26" s="4">
+        <v>5</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="V26" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>176</v>
       </c>
@@ -4284,21 +5141,42 @@
       <c r="I27" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="10"/>
+      <c r="J27" s="18">
+        <v>5</v>
+      </c>
+      <c r="K27" s="19">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7</v>
+      </c>
+      <c r="M27" s="10">
+        <v>3</v>
+      </c>
+      <c r="N27" s="19"/>
       <c r="P27" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q27" s="18">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="T27" s="4">
+        <v>7</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="V27" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>177</v>
       </c>
@@ -4311,21 +5189,41 @@
       <c r="I28" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="10"/>
+      <c r="J28" s="18">
+        <v>5</v>
+      </c>
+      <c r="K28" s="19">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>7</v>
+      </c>
+      <c r="M28" s="10">
+        <v>3</v>
+      </c>
       <c r="P28" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q28" s="18">
+        <v>5</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T28" s="4">
+        <v>7</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>178</v>
       </c>
@@ -4338,21 +5236,41 @@
       <c r="I29" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="10"/>
+      <c r="J29" s="18">
+        <v>7</v>
+      </c>
+      <c r="K29" s="19">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5</v>
+      </c>
+      <c r="M29" s="10">
+        <v>2</v>
+      </c>
       <c r="P29" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="10"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q29" s="18">
+        <v>7</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T29" s="4">
+        <v>5</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="V29" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>179</v>
       </c>
@@ -4365,23 +5283,42 @@
       <c r="I30" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="10"/>
+      <c r="J30" s="18">
+        <v>7</v>
+      </c>
+      <c r="K30" s="19">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19">
+        <v>5</v>
+      </c>
+      <c r="M30" s="10">
+        <v>2</v>
+      </c>
       <c r="P30" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="10"/>
+      <c r="Q30" s="18">
+        <v>7</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T30" s="19">
+        <v>5</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="V30" s="24">
+        <v>0.02</v>
+      </c>
       <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>180</v>
       </c>
@@ -4394,23 +5331,42 @@
       <c r="I31" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="10"/>
+      <c r="J31" s="18">
+        <v>5</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>5</v>
+      </c>
+      <c r="M31" s="10">
+        <v>2</v>
+      </c>
       <c r="P31" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="10"/>
+      <c r="Q31" s="18">
+        <v>5</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="S31" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="T31" s="19">
+        <v>5</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="V31" s="10">
+        <v>0.02</v>
+      </c>
       <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>181</v>
       </c>
@@ -4423,23 +5379,42 @@
       <c r="I32" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="10"/>
+      <c r="J32" s="18">
+        <v>5</v>
+      </c>
+      <c r="K32" s="19">
+        <v>2</v>
+      </c>
+      <c r="L32" s="19">
+        <v>5</v>
+      </c>
+      <c r="M32" s="10">
+        <v>2</v>
+      </c>
       <c r="P32" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="10"/>
+      <c r="Q32" s="18">
+        <v>5</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T32" s="19">
+        <v>5</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0.02</v>
+      </c>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>182</v>
       </c>
@@ -4452,23 +5427,42 @@
       <c r="I33" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="10"/>
+      <c r="J33" s="18">
+        <v>5</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="L33" s="19">
+        <v>5</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
       <c r="P33" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="10"/>
+      <c r="Q33" s="18">
+        <v>5</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="T33" s="19">
+        <v>5</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0.01</v>
+      </c>
       <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>183</v>
       </c>
@@ -4481,31 +5475,49 @@
       <c r="I34" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
+      <c r="J34" s="17">
+        <v>5</v>
+      </c>
+      <c r="K34" s="13">
+        <v>2</v>
+      </c>
+      <c r="L34" s="13">
+        <v>5</v>
+      </c>
+      <c r="M34" s="14">
+        <v>2</v>
+      </c>
       <c r="P34" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="14"/>
+      <c r="Q34" s="17">
+        <v>5</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="S34" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="T34" s="13">
+        <v>5</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="V34" s="14">
+        <v>0.02</v>
+      </c>
       <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -4513,7 +5525,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -4521,7 +5533,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -4534,7 +5546,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -4551,9 +5563,14 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X39" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -4570,9 +5587,14 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -4589,9 +5611,14 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -4608,9 +5635,14 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X42" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>321</v>
       </c>
@@ -4627,9 +5659,14 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X43" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>322</v>
       </c>
@@ -4646,9 +5683,14 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X44" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>323</v>
       </c>
@@ -4660,8 +5702,14 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X45" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>324</v>
       </c>
@@ -4686,8 +5734,14 @@
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z46">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>12</v>
       </c>
@@ -4712,8 +5766,14 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <v>0.09</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="52"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4736,8 +5796,11 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
         <v>189</v>
       </c>
@@ -4756,8 +5819,11 @@
       <c r="O49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Z49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>10</v>
       </c>
@@ -4780,8 +5846,14 @@
       <c r="P50" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X50" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>13</v>
       </c>
@@ -4804,8 +5876,14 @@
       <c r="P51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>325</v>
       </c>
@@ -4828,8 +5906,14 @@
       <c r="P52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
         <v>326</v>
       </c>
@@ -4852,8 +5936,14 @@
       <c r="P53" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X53" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>327</v>
       </c>
@@ -4876,8 +5966,14 @@
       <c r="P54" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X54" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>328</v>
       </c>
@@ -4900,8 +5996,14 @@
       <c r="P55" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>12</v>
       </c>
@@ -4924,8 +6026,14 @@
       <c r="P56" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X56">
+        <v>0.12</v>
+      </c>
+      <c r="Z56">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4946,8 +6054,14 @@
       <c r="P57" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
@@ -4965,7 +6079,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>184</v>
       </c>
@@ -4988,8 +6102,14 @@
       <c r="P59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X59" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -5012,8 +6132,14 @@
       <c r="P60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X60" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -5023,8 +6149,14 @@
       <c r="P61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -5034,8 +6166,14 @@
       <c r="P62" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X62" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>330</v>
       </c>
@@ -5045,8 +6183,14 @@
       <c r="P63" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X63" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>331</v>
       </c>
@@ -5056,8 +6200,14 @@
       <c r="P64" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X64" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>332</v>
       </c>
@@ -5067,8 +6217,14 @@
       <c r="P65" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X65" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -5078,21 +6234,39 @@
       <c r="P66" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X66" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>23</v>
       </c>
       <c r="P67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X67">
+        <v>0.09</v>
+      </c>
+      <c r="Z67">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X68" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +6277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -5113,8 +6287,14 @@
       <c r="P70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X70" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>333</v>
       </c>
@@ -5124,8 +6304,14 @@
       <c r="P71" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X71" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>330</v>
       </c>
@@ -5135,8 +6321,14 @@
       <c r="P72" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X72" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>322</v>
       </c>
@@ -5146,8 +6338,14 @@
       <c r="P73" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X73" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>334</v>
       </c>
@@ -5157,8 +6355,14 @@
       <c r="P74" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X74" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>335</v>
       </c>
@@ -5168,8 +6372,14 @@
       <c r="P75" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X75" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -5179,21 +6389,33 @@
       <c r="P76" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>23</v>
       </c>
       <c r="P77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -5203,8 +6425,14 @@
       <c r="P79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X79" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5214,8 +6442,14 @@
       <c r="P80" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X80" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -5225,8 +6459,14 @@
       <c r="P81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X81" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>336</v>
       </c>
@@ -5236,8 +6476,14 @@
       <c r="P82" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X82" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>337</v>
       </c>
@@ -5247,8 +6493,14 @@
       <c r="P83" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X83" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -5258,8 +6510,14 @@
       <c r="P84" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X84" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -5269,8 +6527,14 @@
       <c r="P85" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X85" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>328</v>
       </c>
@@ -5280,8 +6544,14 @@
       <c r="P86" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X86" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -5291,21 +6561,33 @@
       <c r="P87" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X87">
+        <v>0.13</v>
+      </c>
+      <c r="Z87">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
         <v>23</v>
       </c>
       <c r="P88" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X88" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -5315,8 +6597,14 @@
       <c r="P90" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X90" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5326,8 +6614,14 @@
       <c r="P91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X91" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>320</v>
       </c>
@@ -5337,8 +6631,14 @@
       <c r="P92" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X92" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>337</v>
       </c>
@@ -5348,8 +6648,14 @@
       <c r="P93" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X93" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>340</v>
       </c>
@@ -5359,8 +6665,14 @@
       <c r="P94" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X94" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>332</v>
       </c>
@@ -5370,8 +6682,14 @@
       <c r="P95" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X95" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -5381,21 +6699,33 @@
       <c r="P96" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X96">
+        <v>0.13</v>
+      </c>
+      <c r="Z96">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>23</v>
       </c>
       <c r="P97" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X97" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -5405,8 +6735,14 @@
       <c r="P99" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X99" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5416,8 +6752,14 @@
       <c r="P100" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X100" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -5427,8 +6769,14 @@
       <c r="P101" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X101" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>341</v>
       </c>
@@ -5438,8 +6786,14 @@
       <c r="P102" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X102" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>342</v>
       </c>
@@ -5449,8 +6803,14 @@
       <c r="P103" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X103" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>322</v>
       </c>
@@ -5460,8 +6820,14 @@
       <c r="P104" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X104" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>343</v>
       </c>
@@ -5471,8 +6837,14 @@
       <c r="P105" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X105" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>344</v>
       </c>
@@ -5482,8 +6854,14 @@
       <c r="P106" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X106" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -5493,21 +6871,33 @@
       <c r="P107" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X107">
+        <v>0.2</v>
+      </c>
+      <c r="Z107">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
         <v>23</v>
       </c>
       <c r="P108" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X108" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -5517,8 +6907,14 @@
       <c r="P110" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X110" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -5528,8 +6924,14 @@
       <c r="P111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X111" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -5539,8 +6941,14 @@
       <c r="P112" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X112" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>342</v>
       </c>
@@ -5550,8 +6958,14 @@
       <c r="P113" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X113" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>345</v>
       </c>
@@ -5561,8 +6975,14 @@
       <c r="P114" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X114" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>346</v>
       </c>
@@ -5572,8 +6992,14 @@
       <c r="P115" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X115" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -5583,21 +7009,33 @@
       <c r="P116" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X116">
+        <v>0.16</v>
+      </c>
+      <c r="Z116">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
         <v>23</v>
       </c>
       <c r="P117" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X117" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -5607,8 +7045,14 @@
       <c r="P119" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X119" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -5618,8 +7062,14 @@
       <c r="P120" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -5629,8 +7079,14 @@
       <c r="P121" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X121" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>336</v>
       </c>
@@ -5640,8 +7096,14 @@
       <c r="P122" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X122" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>347</v>
       </c>
@@ -5651,8 +7113,14 @@
       <c r="P123" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X123" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>348</v>
       </c>
@@ -5662,8 +7130,14 @@
       <c r="P124" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X124" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -5673,8 +7147,14 @@
       <c r="P125" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X125" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -5684,21 +7164,39 @@
       <c r="P126" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X126" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
         <v>23</v>
       </c>
       <c r="P127" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X127">
+        <v>0.1</v>
+      </c>
+      <c r="Z127">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X128" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -5709,7 +7207,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -5719,8 +7217,14 @@
       <c r="P130" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X130" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>325</v>
       </c>
@@ -5730,8 +7234,14 @@
       <c r="P131" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X131" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>349</v>
       </c>
@@ -5741,8 +7251,14 @@
       <c r="P132" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X132" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>350</v>
       </c>
@@ -5752,8 +7268,14 @@
       <c r="P133" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X133" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>351</v>
       </c>
@@ -5763,8 +7285,14 @@
       <c r="P134" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X134" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>352</v>
       </c>
@@ -5774,8 +7302,14 @@
       <c r="P135" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X135" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -5785,29 +7319,47 @@
       <c r="P136" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X136">
+        <v>0.05</v>
+      </c>
+      <c r="Z136">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
         <v>23</v>
       </c>
       <c r="P137" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X137" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
       <c r="I139" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X139" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5817,8 +7369,14 @@
       <c r="P140" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X140" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -5828,8 +7386,14 @@
       <c r="P141" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X141" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>325</v>
       </c>
@@ -5839,8 +7403,14 @@
       <c r="P142" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X142" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -5850,8 +7420,14 @@
       <c r="P143" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X143" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>322</v>
       </c>
@@ -5861,8 +7437,14 @@
       <c r="P144" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X144" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>353</v>
       </c>
@@ -5872,8 +7454,14 @@
       <c r="P145" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X145" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>352</v>
       </c>
@@ -5883,8 +7471,14 @@
       <c r="P146" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X146" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -5894,16 +7488,28 @@
       <c r="P147" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X147">
+        <v>0.18</v>
+      </c>
+      <c r="Z147">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
         <v>23</v>
       </c>
       <c r="P148" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X148" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>189</v>
       </c>
@@ -5911,15 +7517,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="I150" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X150" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -5929,8 +7541,14 @@
       <c r="P151" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X151" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>329</v>
       </c>
@@ -5940,8 +7558,14 @@
       <c r="P152" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X152" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -5951,8 +7575,14 @@
       <c r="P153" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X153" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>354</v>
       </c>
@@ -5962,8 +7592,14 @@
       <c r="P154" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X154" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>328</v>
       </c>
@@ -5973,8 +7609,14 @@
       <c r="P155" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X155" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -5984,17 +7626,175 @@
       <c r="P156" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X156">
+        <v>0.04</v>
+      </c>
+      <c r="Z156">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I157" t="s">
         <v>23</v>
       </c>
       <c r="P157" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X157" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X159" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X160" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X161" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X162" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="163" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X163" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="164" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X164" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X165" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X166">
+        <v>0.04</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="167" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X167" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z167">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="168" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="Z168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X169" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X170" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X171" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X172" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X173" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="174" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X174" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="175" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X175" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="176" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X176">
+        <v>0.3</v>
+      </c>
+      <c r="Z176">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="177" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X177" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z177" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6006,38 +7806,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
-  <dimension ref="A1:W158"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -6077,7 +7877,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="23"/>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -6137,7 +7937,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -6197,7 +7997,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -6256,7 +8056,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -6315,7 +8115,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -6374,7 +8174,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -6433,7 +8233,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -6490,7 +8290,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -6549,7 +8349,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +8408,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -6667,7 +8467,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
@@ -6726,7 +8526,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -6785,7 +8585,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6844,7 +8644,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -6903,7 +8703,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -6962,7 +8762,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -7021,7 +8821,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -7080,7 +8880,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -7139,7 +8939,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
@@ -7198,7 +8998,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>170</v>
       </c>
@@ -7225,7 +9025,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>171</v>
       </c>
@@ -7252,7 +9052,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>172</v>
       </c>
@@ -7279,7 +9079,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>173</v>
       </c>
@@ -7309,7 +9109,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>174</v>
       </c>
@@ -7339,7 +9139,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>175</v>
       </c>
@@ -7369,7 +9169,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>176</v>
       </c>
@@ -7399,7 +9199,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>177</v>
       </c>
@@ -7429,7 +9229,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>178</v>
       </c>
@@ -7459,7 +9259,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>179</v>
       </c>
@@ -7489,7 +9289,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>180</v>
       </c>
@@ -7519,7 +9319,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>181</v>
       </c>
@@ -7549,7 +9349,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>182</v>
       </c>
@@ -7579,7 +9379,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>183</v>
       </c>
@@ -7609,7 +9409,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
       <c r="O35" s="52"/>
       <c r="P35" s="4"/>
@@ -7621,7 +9421,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
       <c r="O36" s="52"/>
       <c r="P36" s="4"/>
@@ -7633,7 +9433,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
       <c r="O37" s="52"/>
       <c r="P37" s="4"/>
@@ -7645,7 +9445,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
       <c r="O38" s="52"/>
       <c r="P38" s="4"/>
@@ -7657,7 +9457,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
       <c r="O39" s="52"/>
       <c r="P39" s="4"/>
@@ -7669,7 +9469,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -7684,13 +9484,18 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
+      <c r="S40" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -7705,13 +9510,18 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
+      <c r="S41" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -7728,13 +9538,18 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
+      <c r="S42" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -7751,13 +9566,18 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>185</v>
       </c>
@@ -7774,13 +9594,18 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
+      <c r="S44" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X44" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -7797,13 +9622,18 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -7820,13 +9650,18 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -7843,13 +9678,18 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
+      <c r="S47" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -7866,20 +9706,25 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -7888,8 +9733,14 @@
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>189</v>
+      </c>
+      <c r="X50" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +9752,14 @@
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>557</v>
+      </c>
+      <c r="X51" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -7914,8 +9771,14 @@
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>558</v>
+      </c>
+      <c r="X52" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -7927,8 +9790,14 @@
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>559</v>
+      </c>
+      <c r="X53" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -7940,8 +9809,14 @@
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>560</v>
+      </c>
+      <c r="X54" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -7953,8 +9828,14 @@
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>561</v>
+      </c>
+      <c r="X55" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -7966,8 +9847,11 @@
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7979,15 +9863,24 @@
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>462</v>
+      </c>
+      <c r="X58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -7996,8 +9889,14 @@
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>184</v>
+      </c>
+      <c r="X59" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -8009,8 +9908,14 @@
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>563</v>
+      </c>
+      <c r="X60" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -8022,8 +9927,14 @@
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>564</v>
+      </c>
+      <c r="X61" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -8035,8 +9946,14 @@
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>559</v>
+      </c>
+      <c r="X62" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>194</v>
       </c>
@@ -8048,8 +9965,14 @@
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>565</v>
+      </c>
+      <c r="X63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>195</v>
       </c>
@@ -8061,8 +9984,14 @@
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>566</v>
+      </c>
+      <c r="X64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>196</v>
       </c>
@@ -8074,8 +10003,14 @@
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>567</v>
+      </c>
+      <c r="X65" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>197</v>
       </c>
@@ -8088,7 +10023,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -8098,22 +10033,40 @@
       <c r="K67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>189</v>
+      </c>
+      <c r="X67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="F68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>568</v>
+      </c>
+      <c r="X68" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>189</v>
       </c>
       <c r="K69" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>569</v>
+      </c>
+      <c r="X69" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -8123,8 +10076,14 @@
       <c r="K70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>211</v>
+      </c>
+      <c r="X70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>92</v>
       </c>
@@ -8134,8 +10093,14 @@
       <c r="K71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>253</v>
+      </c>
+      <c r="X71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>198</v>
       </c>
@@ -8145,8 +10110,14 @@
       <c r="K72" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>570</v>
+      </c>
+      <c r="X72" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>191</v>
       </c>
@@ -8156,8 +10127,14 @@
       <c r="K73" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>571</v>
+      </c>
+      <c r="X73" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>199</v>
       </c>
@@ -8168,7 +10145,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>200</v>
       </c>
@@ -8178,8 +10155,14 @@
       <c r="K75" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>469</v>
+      </c>
+      <c r="X75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>201</v>
       </c>
@@ -8189,16 +10172,28 @@
       <c r="K76" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>184</v>
+      </c>
+      <c r="X76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>572</v>
+      </c>
+      <c r="X77" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="F78" t="s">
         <v>12</v>
@@ -8206,16 +10201,28 @@
       <c r="K78" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>573</v>
+      </c>
+      <c r="X78" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K79" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>574</v>
+      </c>
+      <c r="X79" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>184</v>
       </c>
@@ -8225,8 +10232,14 @@
       <c r="K80" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>575</v>
+      </c>
+      <c r="X80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>93</v>
       </c>
@@ -8236,8 +10249,14 @@
       <c r="K81" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>576</v>
+      </c>
+      <c r="X81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>94</v>
       </c>
@@ -8247,8 +10266,14 @@
       <c r="K82" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>577</v>
+      </c>
+      <c r="X82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>202</v>
       </c>
@@ -8258,8 +10283,11 @@
       <c r="K83" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>195</v>
       </c>
@@ -8269,8 +10297,11 @@
       <c r="K84" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>203</v>
       </c>
@@ -8280,8 +10311,14 @@
       <c r="K85" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>578</v>
+      </c>
+      <c r="X85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>204</v>
       </c>
@@ -8291,8 +10328,14 @@
       <c r="K86" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>579</v>
+      </c>
+      <c r="X86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>205</v>
       </c>
@@ -8302,32 +10345,56 @@
       <c r="K87" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>559</v>
+      </c>
+      <c r="X87" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="F88" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>565</v>
+      </c>
+      <c r="X88" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="K89" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>580</v>
+      </c>
+      <c r="X89" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>189</v>
       </c>
       <c r="K90" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>581</v>
+      </c>
+      <c r="X90" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -8337,8 +10404,11 @@
       <c r="K91" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X91" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -8348,8 +10418,11 @@
       <c r="K92" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -8359,8 +10432,14 @@
       <c r="K93" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>184</v>
+      </c>
+      <c r="X93" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -8370,8 +10449,14 @@
       <c r="K94" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>582</v>
+      </c>
+      <c r="X94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -8381,8 +10466,14 @@
       <c r="K95" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S95" t="s">
+        <v>583</v>
+      </c>
+      <c r="X95" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>207</v>
       </c>
@@ -8392,32 +10483,56 @@
       <c r="K96" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>584</v>
+      </c>
+      <c r="X96" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="F97" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>585</v>
+      </c>
+      <c r="X97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>23</v>
       </c>
       <c r="K98" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S98" t="s">
+        <v>586</v>
+      </c>
+      <c r="X98" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>65</v>
       </c>
       <c r="K99" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>587</v>
+      </c>
+      <c r="X99" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -8427,8 +10542,11 @@
       <c r="K100" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X100" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -8438,8 +10556,11 @@
       <c r="K101" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -8449,8 +10570,14 @@
       <c r="K102" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S102" t="s">
+        <v>588</v>
+      </c>
+      <c r="X102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -8460,8 +10587,14 @@
       <c r="K103" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S103" t="s">
+        <v>589</v>
+      </c>
+      <c r="X103" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -8471,8 +10604,14 @@
       <c r="K104" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S104" t="s">
+        <v>590</v>
+      </c>
+      <c r="X104" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -8482,8 +10621,14 @@
       <c r="K105" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S105" t="s">
+        <v>591</v>
+      </c>
+      <c r="X105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -8493,24 +10638,39 @@
       <c r="K106" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S106" t="s">
+        <v>592</v>
+      </c>
+      <c r="X106" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="F107" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S107" t="s">
+        <v>593</v>
+      </c>
+      <c r="X107" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>252</v>
       </c>
       <c r="K108" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X108" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -8520,16 +10680,25 @@
       <c r="K109" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S109" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>100</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S110" t="s">
+        <v>184</v>
+      </c>
+      <c r="X110" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -8539,8 +10708,14 @@
       <c r="K111" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S111" t="s">
+        <v>594</v>
+      </c>
+      <c r="X111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -8550,8 +10725,14 @@
       <c r="K112" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S112" t="s">
+        <v>595</v>
+      </c>
+      <c r="X112" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -8561,8 +10742,14 @@
       <c r="K113" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S113" t="s">
+        <v>278</v>
+      </c>
+      <c r="X113" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -8572,8 +10759,14 @@
       <c r="K114" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S114" t="s">
+        <v>591</v>
+      </c>
+      <c r="X114" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>213</v>
       </c>
@@ -8583,24 +10776,42 @@
       <c r="K115" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S115" t="s">
+        <v>596</v>
+      </c>
+      <c r="X115" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="F116" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S116" t="s">
+        <v>597</v>
+      </c>
+      <c r="X116" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
         <v>255</v>
       </c>
       <c r="K117" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>598</v>
+      </c>
+      <c r="X117" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -8611,15 +10822,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>184</v>
       </c>
       <c r="K119" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S119" t="s">
+        <v>189</v>
+      </c>
+      <c r="X119" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>102</v>
       </c>
@@ -8629,8 +10846,14 @@
       <c r="K120" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S120" t="s">
+        <v>599</v>
+      </c>
+      <c r="X120" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -8640,8 +10863,14 @@
       <c r="K121" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S121" t="s">
+        <v>600</v>
+      </c>
+      <c r="X121" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -8651,8 +10880,14 @@
       <c r="K122" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S122" t="s">
+        <v>601</v>
+      </c>
+      <c r="X122" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -8662,8 +10897,14 @@
       <c r="K123" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S123" t="s">
+        <v>602</v>
+      </c>
+      <c r="X123" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -8673,8 +10914,14 @@
       <c r="K124" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S124" t="s">
+        <v>603</v>
+      </c>
+      <c r="X124" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -8684,8 +10931,14 @@
       <c r="K125" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S125" t="s">
+        <v>604</v>
+      </c>
+      <c r="X125" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -8693,15 +10946,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
         <v>258</v>
       </c>
       <c r="K127" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S127" t="s">
+        <v>490</v>
+      </c>
+      <c r="X127" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -8711,16 +10970,28 @@
       <c r="K128" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S128" t="s">
+        <v>184</v>
+      </c>
+      <c r="X128" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>104</v>
       </c>
       <c r="K129" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S129" t="s">
+        <v>605</v>
+      </c>
+      <c r="X129" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -8730,8 +11001,14 @@
       <c r="K130" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S130" t="s">
+        <v>606</v>
+      </c>
+      <c r="X130" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>217</v>
       </c>
@@ -8741,8 +11018,14 @@
       <c r="K131" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S131" t="s">
+        <v>553</v>
+      </c>
+      <c r="X131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -8752,8 +11035,14 @@
       <c r="K132" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S132" t="s">
+        <v>607</v>
+      </c>
+      <c r="X132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -8763,8 +11052,14 @@
       <c r="K133" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S133" t="s">
+        <v>608</v>
+      </c>
+      <c r="X133" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -8774,16 +11069,28 @@
       <c r="K134" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S134" t="s">
+        <v>609</v>
+      </c>
+      <c r="X134" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
       <c r="F135" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S135" t="s">
+        <v>610</v>
+      </c>
+      <c r="X135" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>261</v>
       </c>
@@ -8791,7 +11098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -8801,8 +11108,14 @@
       <c r="K137" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S137" t="s">
+        <v>189</v>
+      </c>
+      <c r="X137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -8812,16 +11125,28 @@
       <c r="K138" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S138" t="s">
+        <v>611</v>
+      </c>
+      <c r="X138" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>106</v>
       </c>
       <c r="K139" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S139" t="s">
+        <v>612</v>
+      </c>
+      <c r="X139" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -8831,8 +11156,14 @@
       <c r="K140" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S140" t="s">
+        <v>613</v>
+      </c>
+      <c r="X140" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>221</v>
       </c>
@@ -8842,8 +11173,14 @@
       <c r="K141" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S141" t="s">
+        <v>224</v>
+      </c>
+      <c r="X141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>218</v>
       </c>
@@ -8853,8 +11190,14 @@
       <c r="K142" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S142" t="s">
+        <v>614</v>
+      </c>
+      <c r="X142" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>222</v>
       </c>
@@ -8864,8 +11207,14 @@
       <c r="K143" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S143" t="s">
+        <v>615</v>
+      </c>
+      <c r="X143" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -8876,7 +11225,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -8886,13 +11235,25 @@
       <c r="K145" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S145" t="s">
+        <v>498</v>
+      </c>
+      <c r="X145" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S146" t="s">
+        <v>184</v>
+      </c>
+      <c r="X146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -8902,8 +11263,14 @@
       <c r="K147" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S147" t="s">
+        <v>616</v>
+      </c>
+      <c r="X147" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>97</v>
       </c>
@@ -8913,8 +11280,14 @@
       <c r="K148" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S148" t="s">
+        <v>617</v>
+      </c>
+      <c r="X148" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -8924,16 +11297,28 @@
       <c r="K149" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S149" t="s">
+        <v>553</v>
+      </c>
+      <c r="X149" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>198</v>
       </c>
       <c r="K150" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S150" t="s">
+        <v>618</v>
+      </c>
+      <c r="X150" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>224</v>
       </c>
@@ -8943,8 +11328,14 @@
       <c r="K151" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S151" t="s">
+        <v>619</v>
+      </c>
+      <c r="X151" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -8954,8 +11345,14 @@
       <c r="K152" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S152" t="s">
+        <v>620</v>
+      </c>
+      <c r="X152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>226</v>
       </c>
@@ -8966,7 +11363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -8976,25 +11373,73 @@
       <c r="K154" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S154" t="s">
+        <v>189</v>
+      </c>
+      <c r="X154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S155" t="s">
+        <v>621</v>
+      </c>
+      <c r="X155" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S156" t="s">
+        <v>622</v>
+      </c>
+      <c r="X156" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S157" t="s">
+        <v>623</v>
+      </c>
+      <c r="X157" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
         <v>12</v>
+      </c>
+      <c r="S158" t="s">
+        <v>624</v>
+      </c>
+      <c r="X158" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
+        <v>625</v>
+      </c>
+      <c r="X159" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S160" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S161" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -9009,36 +11454,36 @@
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>56</v>
@@ -9065,7 +11510,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="23"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -9102,7 +11547,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -9170,7 +11615,7 @@
       <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -9255,7 +11700,7 @@
         <v>-3.1546996684485142</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -9340,7 +11785,7 @@
         <v>5.1835853131748513</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -9425,7 +11870,7 @@
         <v>-0.5081946385459829</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -9466,7 +11911,7 @@
         <v>135.59784017278599</v>
       </c>
       <c r="K7" s="10">
-        <f>((J7-G7)/G7)*100</f>
+        <f t="shared" ref="K7:K15" si="2">((J7-G7)/G7)*100</f>
         <v>-0.73364555432942979</v>
       </c>
       <c r="L7" s="18">
@@ -9510,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -9551,7 +11996,7 @@
         <v>108.4</v>
       </c>
       <c r="K8" s="10">
-        <f>((J8-G8)/G8)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="18">
@@ -9595,7 +12040,7 @@
         <v>9.538950715421489</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -9636,7 +12081,7 @@
         <v>97.7</v>
       </c>
       <c r="K9" s="10">
-        <f>((J9-G9)/G9)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="18">
@@ -9680,7 +12125,7 @@
         <v>-2.145018271955712</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -9721,7 +12166,7 @@
         <v>372.32440604751599</v>
       </c>
       <c r="K10" s="10">
-        <f>((J10-G10)/G10)*100</f>
+        <f t="shared" si="2"/>
         <v>1.9787472055644943</v>
       </c>
       <c r="L10" s="18">
@@ -9765,7 +12210,7 @@
         <v>-0.25340933014199418</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -9806,7 +12251,7 @@
         <v>486.23110151187899</v>
       </c>
       <c r="K11" s="10">
-        <f>((J11-G11)/G11)*100</f>
+        <f t="shared" si="2"/>
         <v>24.451267343711034</v>
       </c>
       <c r="L11" s="18">
@@ -9850,7 +12295,7 @@
         <v>38.294741442841193</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -9891,7 +12336,7 @@
         <v>530.42699784017202</v>
       </c>
       <c r="K12" s="10">
-        <f>((J12-G12)/G12)*100</f>
+        <f t="shared" si="2"/>
         <v>379.15717962075593</v>
       </c>
       <c r="L12" s="18">
@@ -9934,7 +12379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -9975,7 +12420,7 @@
         <v>409.93023758099298</v>
       </c>
       <c r="K13" s="10">
-        <f>((J13-G13)/G13)*100</f>
+        <f t="shared" si="2"/>
         <v>116.20793121360389</v>
       </c>
       <c r="L13" s="18">
@@ -10019,7 +12464,7 @@
         <v>-1.6897821727982081</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -10060,7 +12505,7 @@
         <v>188.43606911447</v>
       </c>
       <c r="K14" s="10">
-        <f>((J14-G14)/G14)*100</f>
+        <f t="shared" si="2"/>
         <v>37.044413901432726</v>
       </c>
       <c r="L14" s="18">
@@ -10104,7 +12549,7 @@
         <v>5.8902132443322177</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
@@ -10145,7 +12590,7 @@
         <v>178.33671706263499</v>
       </c>
       <c r="K15" s="10">
-        <f>((J15-G15)/G15)*100</f>
+        <f t="shared" si="2"/>
         <v>15.727915030911744</v>
       </c>
       <c r="L15" s="18">
@@ -10189,7 +12634,7 @@
         <v>796.12874727453504</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10255,7 +12700,7 @@
         <v>265.3362783242149</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -10321,7 +12766,7 @@
         <v>120.19265520407774</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -10386,7 +12831,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -10452,7 +12897,7 @@
         <v>42.029432676441523</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -10518,7 +12963,7 @@
         <v>513.75844584839683</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -10583,7 +13028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>170</v>
       </c>
@@ -10608,7 +13053,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>171</v>
       </c>
@@ -10633,7 +13078,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="10"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>172</v>
       </c>
@@ -10658,7 +13103,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="10"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>173</v>
       </c>
@@ -10683,7 +13128,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>174</v>
       </c>
@@ -10708,7 +13153,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>175</v>
       </c>
@@ -10733,7 +13178,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>176</v>
       </c>
@@ -10758,7 +13203,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>177</v>
       </c>
@@ -10783,7 +13228,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>178</v>
       </c>
@@ -10808,7 +13253,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>179</v>
       </c>
@@ -10833,7 +13278,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>180</v>
       </c>
@@ -10858,7 +13303,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>181</v>
       </c>
@@ -10883,7 +13328,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>182</v>
       </c>
@@ -10908,7 +13353,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>183</v>
       </c>
@@ -10933,8 +13378,8 @@
       <c r="T35" s="13"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>56</v>
@@ -10964,7 +13409,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>165</v>
       </c>
@@ -11006,7 +13451,7 @@
       </c>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>57</v>
       </c>
@@ -11064,7 +13509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>0</v>
       </c>
@@ -11134,7 +13579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>1</v>
       </c>
@@ -11197,7 +13642,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
@@ -11260,7 +13705,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>3</v>
       </c>
@@ -11323,7 +13768,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
@@ -11386,7 +13831,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
@@ -11449,7 +13894,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>6</v>
       </c>
@@ -11512,7 +13957,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>7</v>
       </c>
@@ -11575,7 +14020,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -11638,7 +14083,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>31</v>
       </c>
@@ -11701,7 +14146,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>8</v>
       </c>
@@ -11764,7 +14209,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>9</v>
       </c>
@@ -11827,7 +14272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -11886,7 +14331,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>41</v>
       </c>
@@ -11945,7 +14390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>43</v>
       </c>
@@ -12004,7 +14449,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>46</v>
       </c>
@@ -12063,7 +14508,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>49</v>
       </c>
@@ -12122,7 +14567,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>51</v>
       </c>
@@ -12181,7 +14626,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>170</v>
       </c>
@@ -12207,7 +14652,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>171</v>
       </c>
@@ -12233,7 +14678,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>172</v>
       </c>
@@ -12259,7 +14704,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>173</v>
       </c>
@@ -12285,7 +14730,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>174</v>
       </c>
@@ -12311,7 +14756,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>175</v>
       </c>
@@ -12337,7 +14782,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>176</v>
       </c>
@@ -12363,7 +14808,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>177</v>
       </c>
@@ -12389,7 +14834,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>178</v>
       </c>
@@ -12415,7 +14860,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>179</v>
       </c>
@@ -12441,7 +14886,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>180</v>
       </c>
@@ -12467,7 +14912,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>181</v>
       </c>
@@ -12493,7 +14938,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>182</v>
       </c>
@@ -12519,7 +14964,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="10"/>
     </row>
-    <row r="74" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>183</v>
       </c>
@@ -12545,11 +14990,11 @@
       <c r="T74" s="13"/>
       <c r="U74" s="14"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F42A7-E824-49DA-99CE-4A33024E53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939F2C3-B293-4EE0-8217-7DAC26F9E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="ExhaustiveSearch" sheetId="2" state="hidden" r:id="rId1"/>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,7 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -603,6 +602,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +829,7 @@
                   <c:v>7.93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.07</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.38</c:v>
@@ -1356,7 +1359,7 @@
                   <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.07</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.2400000000000002</c:v>
@@ -2934,7 +2937,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.81</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.02</c:v>
@@ -10827,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11569,22 +11572,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="18">
-        <v>146.19999999999999</v>
+        <v>112.6</v>
       </c>
       <c r="C13" s="4">
-        <v>194.99999999999901</v>
+        <v>23</v>
       </c>
       <c r="D13" s="21">
-        <v>341.19999999999902</v>
+        <v>135.6</v>
       </c>
       <c r="E13" s="4">
-        <v>98.2</v>
+        <v>98.199999999999903</v>
       </c>
       <c r="F13" s="4">
-        <v>95</v>
+        <v>71.999999999999901</v>
       </c>
       <c r="G13" s="22">
-        <v>193.2</v>
+        <v>170.19999999999899</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>15</v>
@@ -11593,7 +11596,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="19">
         <v>8</v>
@@ -11608,16 +11611,16 @@
         <v>9</v>
       </c>
       <c r="R13" s="50">
-        <v>60.07</v>
+        <v>3.4</v>
       </c>
       <c r="S13" s="53">
-        <v>14.81</v>
+        <v>0.02</v>
       </c>
       <c r="T13" s="19">
         <v>8</v>
       </c>
       <c r="U13" s="50">
-        <v>5.07</v>
+        <v>3.36</v>
       </c>
       <c r="V13" s="56">
         <v>0.02</v>
@@ -12212,7 +12215,7 @@
       <c r="V23" s="56">
         <v>0.01</v>
       </c>
-      <c r="Y23" s="70"/>
+      <c r="Y23" s="69"/>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
@@ -12272,8 +12275,8 @@
       <c r="V24" s="56">
         <v>0.01</v>
       </c>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
     </row>
     <row r="25" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
@@ -13088,7 +13091,7 @@
   <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13795,22 +13798,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="28">
-        <v>10000133.1</v>
+        <v>10000198.300000001</v>
       </c>
       <c r="C13" s="27">
-        <v>1057.9481641468601</v>
+        <v>1710.2505399567999</v>
       </c>
       <c r="D13" s="42">
-        <v>10001191.048164099</v>
-      </c>
-      <c r="E13" s="4">
-        <v>101.19999999999899</v>
-      </c>
-      <c r="F13" s="4">
-        <v>173.20086393088499</v>
-      </c>
-      <c r="G13" s="22">
-        <v>274.40086393088501</v>
+        <v>10001908.5505399</v>
+      </c>
+      <c r="E13" s="81">
+        <v>123.8</v>
+      </c>
+      <c r="F13" s="81">
+        <v>452.628509719222</v>
+      </c>
+      <c r="G13" s="82">
+        <v>576.42850971922201</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>15</v>
@@ -13834,7 +13837,7 @@
         <v>9</v>
       </c>
       <c r="Q13" s="50">
-        <v>89.901393175125094</v>
+        <v>122.863599777221</v>
       </c>
       <c r="R13" s="60">
         <v>0.02</v>
@@ -13843,7 +13846,7 @@
         <v>8</v>
       </c>
       <c r="T13" s="50">
-        <v>71.265914440155001</v>
+        <v>99.544769287109304</v>
       </c>
       <c r="U13" s="56">
         <v>0.02</v>
@@ -13948,7 +13951,7 @@
       <c r="O15" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="73">
         <v>15</v>
       </c>
       <c r="Q15" s="50">
@@ -14007,7 +14010,7 @@
       <c r="O16" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="74">
+      <c r="P16" s="73">
         <v>10</v>
       </c>
       <c r="Q16" s="50">
@@ -14066,7 +14069,7 @@
       <c r="O17" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="74">
+      <c r="P17" s="73">
         <v>10</v>
       </c>
       <c r="Q17" s="50">
@@ -14166,7 +14169,7 @@
       <c r="G19" s="22">
         <v>303.07170626349898</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="70" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="41">
@@ -14225,7 +14228,7 @@
       <c r="G20" s="22">
         <v>984.01339092872604</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="18">
@@ -14284,7 +14287,7 @@
       <c r="G21" s="22">
         <v>331.70971922246298</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="18">
@@ -14343,7 +14346,7 @@
       <c r="G22" s="22">
         <v>575.03369330453597</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="71" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="18">
@@ -14403,7 +14406,7 @@
       <c r="G23" s="22">
         <v>34.200000000000003</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="71" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="18">
@@ -14463,7 +14466,7 @@
       <c r="G24" s="22">
         <v>44.3179265658747</v>
       </c>
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="71" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="18">
@@ -14525,7 +14528,7 @@
       <c r="G25" s="22">
         <v>281.00971922246202</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="18">
@@ -14587,7 +14590,7 @@
       <c r="G26" s="22">
         <v>813.12570194384398</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="I26" s="71" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="18">
@@ -14649,7 +14652,7 @@
       <c r="G27" s="22">
         <v>207.454859611231</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="I27" s="71" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="18">
@@ -14711,7 +14714,7 @@
       <c r="G28" s="22">
         <v>496.56933045356402</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="71" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="18">
@@ -14773,7 +14776,7 @@
       <c r="G29" s="22">
         <v>180.632397408206</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="71" t="s">
         <v>44</v>
       </c>
       <c r="J29" s="18">
@@ -14835,7 +14838,7 @@
       <c r="G30" s="22">
         <v>682.23887688984996</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="71" t="s">
         <v>45</v>
       </c>
       <c r="J30" s="18">
@@ -14897,7 +14900,7 @@
       <c r="G31" s="22">
         <v>18.2</v>
       </c>
-      <c r="I31" s="72" t="s">
+      <c r="I31" s="71" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="18">
@@ -14959,7 +14962,7 @@
       <c r="G32" s="26">
         <v>25.691576673865999</v>
       </c>
-      <c r="I32" s="73" t="s">
+      <c r="I32" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J32" s="17">
@@ -15307,8 +15310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15320,7 +15323,7 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -16062,58 +16065,58 @@
       </c>
       <c r="B14" s="4">
         <f>'Linear Programming Model'!B13</f>
-        <v>146.19999999999999</v>
+        <v>112.6</v>
       </c>
       <c r="C14" s="4">
         <f>'Linear Programming Model'!C13</f>
-        <v>194.99999999999901</v>
+        <v>23</v>
       </c>
       <c r="D14" s="21">
         <f>'Linear Programming Model'!D13</f>
-        <v>341.19999999999902</v>
+        <v>135.6</v>
       </c>
       <c r="E14" s="4">
         <f>'Genetic Algorithm'!B13</f>
-        <v>10000133.1</v>
+        <v>10000198.300000001</v>
       </c>
       <c r="F14" s="4">
         <f>'Genetic Algorithm'!C13</f>
-        <v>1057.9481641468601</v>
+        <v>1710.2505399567999</v>
       </c>
       <c r="G14" s="21">
         <f>'Genetic Algorithm'!D13</f>
-        <v>10001191.048164099</v>
+        <v>10001908.5505399</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="18">
         <f>'Linear Programming Model'!E13</f>
-        <v>98.2</v>
+        <v>98.199999999999903</v>
       </c>
       <c r="J14" s="4">
         <f>'Linear Programming Model'!F13</f>
-        <v>95</v>
+        <v>71.999999999999901</v>
       </c>
       <c r="K14" s="21">
         <f>'Linear Programming Model'!G13</f>
-        <v>193.2</v>
+        <v>170.19999999999899</v>
       </c>
       <c r="L14" s="4">
         <f>'Genetic Algorithm'!E13</f>
-        <v>101.19999999999899</v>
+        <v>123.8</v>
       </c>
       <c r="M14" s="4">
         <f>'Genetic Algorithm'!F13</f>
-        <v>173.20086393088499</v>
+        <v>452.628509719222</v>
       </c>
       <c r="N14" s="21">
         <f>'Genetic Algorithm'!G13</f>
-        <v>274.40086393088501</v>
+        <v>576.42850971922201</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="3"/>
-        <v>42.029432676441523</v>
+        <v>238.67715024631337</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -17321,10 +17324,10 @@
         <v>22</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -17368,19 +17371,23 @@
       <c r="B38" s="7">
         <v>4</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="41">
+        <f>'Linear Programming Model'!K3</f>
         <v>2</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
+        <f>'Genetic Algorithm'!K3</f>
         <v>2</v>
       </c>
       <c r="E38" s="41">
         <v>3</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="41">
+        <f>'Linear Programming Model'!M3</f>
         <v>2</v>
       </c>
       <c r="G38" s="8">
+        <f>'Genetic Algorithm'!M3</f>
         <v>2</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -17416,11 +17423,11 @@
         <f>'Genetic Algorithm'!T3</f>
         <v>18.8102688789367</v>
       </c>
-      <c r="R38" s="75">
+      <c r="R38" s="74">
         <f>'Linear Programming Model'!V3</f>
         <v>0.01</v>
       </c>
-      <c r="S38" s="76">
+      <c r="S38" s="75">
         <f>'Genetic Algorithm'!U3</f>
         <v>0.01</v>
       </c>
@@ -17432,19 +17439,23 @@
       <c r="B39" s="4">
         <v>3</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="18">
+        <f>'Linear Programming Model'!K4</f>
         <v>2</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="10">
+        <f>'Genetic Algorithm'!K4</f>
         <v>2</v>
       </c>
       <c r="E39" s="18">
         <v>4</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
+        <f>'Linear Programming Model'!M4</f>
         <v>2</v>
       </c>
       <c r="G39" s="66">
+        <f>'Genetic Algorithm'!M4</f>
         <v>3</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -17496,19 +17507,23 @@
       <c r="B40" s="4">
         <v>4</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="18">
+        <f>'Linear Programming Model'!K5</f>
         <v>2</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="10">
+        <f>'Genetic Algorithm'!K5</f>
         <v>2</v>
       </c>
       <c r="E40" s="18">
         <v>3</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="18">
+        <f>'Linear Programming Model'!M5</f>
         <v>2</v>
       </c>
       <c r="G40" s="10">
+        <f>'Genetic Algorithm'!M5</f>
         <v>2</v>
       </c>
       <c r="I40" s="9" t="s">
@@ -17560,19 +17575,23 @@
       <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="18">
+        <f>'Linear Programming Model'!K6</f>
         <v>2</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="10">
+        <f>'Genetic Algorithm'!K6</f>
         <v>2</v>
       </c>
       <c r="E41" s="18">
         <v>4</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="18">
+        <f>'Linear Programming Model'!M6</f>
         <v>2</v>
       </c>
       <c r="G41" s="10">
+        <f>'Genetic Algorithm'!M6</f>
         <v>2</v>
       </c>
       <c r="I41" s="9" t="s">
@@ -17624,19 +17643,23 @@
       <c r="B42" s="4">
         <v>6</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="18">
+        <f>'Linear Programming Model'!K7</f>
         <v>3</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="10">
+        <f>'Genetic Algorithm'!K7</f>
         <v>3</v>
       </c>
       <c r="E42" s="18">
         <v>5</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="18">
+        <f>'Linear Programming Model'!M7</f>
         <v>2</v>
       </c>
       <c r="G42" s="10">
+        <f>'Genetic Algorithm'!M7</f>
         <v>2</v>
       </c>
       <c r="I42" s="9" t="s">
@@ -17672,7 +17695,7 @@
         <f>'Genetic Algorithm'!T7</f>
         <v>30.176820039749099</v>
       </c>
-      <c r="R42" s="78">
+      <c r="R42" s="77">
         <f>'Linear Programming Model'!V7</f>
         <v>0.02</v>
       </c>
@@ -17688,19 +17711,23 @@
       <c r="B43" s="4">
         <v>5</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="18">
+        <f>'Linear Programming Model'!K8</f>
         <v>2</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="10">
+        <f>'Genetic Algorithm'!K8</f>
         <v>2</v>
       </c>
       <c r="E43" s="18">
         <v>6</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="18">
+        <f>'Linear Programming Model'!M8</f>
         <v>3</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="24">
+        <f>'Genetic Algorithm'!M8</f>
         <v>3</v>
       </c>
       <c r="I43" s="9" t="s">
@@ -17736,7 +17763,7 @@
         <f>'Genetic Algorithm'!T8</f>
         <v>37.622814178466797</v>
       </c>
-      <c r="R43" s="78">
+      <c r="R43" s="77">
         <f>'Linear Programming Model'!V8</f>
         <v>0.02</v>
       </c>
@@ -17752,19 +17779,23 @@
       <c r="B44" s="4">
         <v>6</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="18">
+        <f>'Linear Programming Model'!K9</f>
         <v>2</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="66">
+        <f>'Genetic Algorithm'!K9</f>
         <v>3</v>
       </c>
       <c r="E44" s="18">
         <v>5</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="18">
+        <f>'Linear Programming Model'!M9</f>
         <v>2</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="24">
+        <f>'Genetic Algorithm'!M9</f>
         <v>2</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -17800,7 +17831,7 @@
         <f>'Genetic Algorithm'!T9</f>
         <v>40.134951353073099</v>
       </c>
-      <c r="R44" s="78">
+      <c r="R44" s="77">
         <f>'Linear Programming Model'!V9</f>
         <v>0.02</v>
       </c>
@@ -17816,19 +17847,23 @@
       <c r="B45" s="4">
         <v>5</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="18">
+        <f>'Linear Programming Model'!K10</f>
         <v>2</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="10">
+        <f>'Genetic Algorithm'!K10</f>
         <v>2</v>
       </c>
       <c r="E45" s="18">
         <v>6</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="18">
+        <f>'Linear Programming Model'!M10</f>
         <v>3</v>
       </c>
       <c r="G45" s="10">
+        <f>'Genetic Algorithm'!M10</f>
         <v>3</v>
       </c>
       <c r="I45" s="9" t="s">
@@ -17864,7 +17899,7 @@
         <f>'Genetic Algorithm'!T10</f>
         <v>31.654180765151899</v>
       </c>
-      <c r="R45" s="78">
+      <c r="R45" s="77">
         <f>'Linear Programming Model'!V10</f>
         <v>0.02</v>
       </c>
@@ -17880,19 +17915,23 @@
       <c r="B46" s="4">
         <v>9</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
+        <f>'Linear Programming Model'!K11</f>
         <v>2</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="10">
+        <f>'Genetic Algorithm'!K11</f>
         <v>2</v>
       </c>
       <c r="E46" s="37">
         <v>8</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
+        <f>'Linear Programming Model'!M11</f>
         <v>2</v>
       </c>
       <c r="G46" s="10">
+        <f>'Genetic Algorithm'!M11</f>
         <v>2</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -17944,19 +17983,23 @@
       <c r="B47" s="4">
         <v>8</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
+        <f>'Linear Programming Model'!K12</f>
         <v>2</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="10">
+        <f>'Genetic Algorithm'!K12</f>
         <v>2</v>
       </c>
       <c r="E47" s="37">
         <v>9</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="79">
+        <f>'Linear Programming Model'!M12</f>
         <v>3</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="10">
+        <f>'Genetic Algorithm'!M12</f>
         <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
@@ -18008,19 +18051,23 @@
       <c r="B48" s="4">
         <v>9</v>
       </c>
-      <c r="C48" s="63">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="18">
+        <f>'Linear Programming Model'!K13</f>
+        <v>2</v>
+      </c>
+      <c r="D48" s="24">
+        <f>'Genetic Algorithm'!K13</f>
         <v>2</v>
       </c>
       <c r="E48" s="37">
         <v>8</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="18">
+        <f>'Linear Programming Model'!M13</f>
         <v>2</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="24">
+        <f>'Genetic Algorithm'!M13</f>
         <v>2</v>
       </c>
       <c r="I48" s="9" t="s">
@@ -18031,15 +18078,15 @@
       </c>
       <c r="K48" s="4">
         <f>'Linear Programming Model'!R13</f>
-        <v>60.07</v>
+        <v>3.4</v>
       </c>
       <c r="L48" s="50">
         <f>'Genetic Algorithm'!Q13</f>
-        <v>89.901393175125094</v>
-      </c>
-      <c r="M48" s="53">
+        <v>122.863599777221</v>
+      </c>
+      <c r="M48" s="19">
         <f>'Linear Programming Model'!S13</f>
-        <v>14.81</v>
+        <v>0.02</v>
       </c>
       <c r="N48" s="10">
         <f>'Genetic Algorithm'!R13</f>
@@ -18050,11 +18097,11 @@
       </c>
       <c r="P48" s="4">
         <f>'Linear Programming Model'!U13</f>
-        <v>5.07</v>
+        <v>3.36</v>
       </c>
       <c r="Q48" s="50">
         <f>'Genetic Algorithm'!T13</f>
-        <v>71.265914440155001</v>
+        <v>99.544769287109304</v>
       </c>
       <c r="R48" s="39">
         <f>'Linear Programming Model'!V13</f>
@@ -18072,19 +18119,23 @@
       <c r="B49" s="4">
         <v>8</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
+        <f>'Linear Programming Model'!K14</f>
         <v>2</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="10">
+        <f>'Genetic Algorithm'!K14</f>
         <v>2</v>
       </c>
       <c r="E49" s="37">
         <v>9</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
+        <f>'Linear Programming Model'!M14</f>
         <v>2</v>
       </c>
       <c r="G49" s="10">
+        <f>'Genetic Algorithm'!M14</f>
         <v>2</v>
       </c>
       <c r="I49" s="9" t="s">
@@ -18136,22 +18187,26 @@
       <c r="B50" s="19">
         <v>15</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
+        <f>'Linear Programming Model'!K15</f>
         <v>3</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="10">
+        <f>'Genetic Algorithm'!K15</f>
         <v>3</v>
       </c>
       <c r="E50" s="37">
         <v>10</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
+        <f>'Linear Programming Model'!M15</f>
         <v>2</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="10">
+        <f>'Genetic Algorithm'!M15</f>
         <v>2</v>
       </c>
-      <c r="I50" s="72" t="s">
+      <c r="I50" s="71" t="s">
         <v>77</v>
       </c>
       <c r="J50" s="37">
@@ -18184,7 +18239,7 @@
         <f>'Genetic Algorithm'!T15</f>
         <v>61.530781984329202</v>
       </c>
-      <c r="R50" s="78">
+      <c r="R50" s="77">
         <f>'Linear Programming Model'!V15</f>
         <v>4.01</v>
       </c>
@@ -18200,22 +18255,26 @@
       <c r="B51" s="19">
         <v>10</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
+        <f>'Linear Programming Model'!K16</f>
         <v>2</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="10">
+        <f>'Genetic Algorithm'!K16</f>
         <v>2</v>
       </c>
       <c r="E51" s="37">
         <v>15</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="18">
+        <f>'Linear Programming Model'!M16</f>
         <v>3</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="10">
+        <f>'Genetic Algorithm'!M16</f>
         <v>3</v>
       </c>
-      <c r="I51" s="72" t="s">
+      <c r="I51" s="71" t="s">
         <v>78</v>
       </c>
       <c r="J51" s="37">
@@ -18248,7 +18307,7 @@
         <f>'Genetic Algorithm'!T16</f>
         <v>85.4074223041534</v>
       </c>
-      <c r="R51" s="78">
+      <c r="R51" s="77">
         <f>'Linear Programming Model'!V16</f>
         <v>29.96</v>
       </c>
@@ -18264,22 +18323,26 @@
       <c r="B52" s="19">
         <v>10</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
+        <f>'Linear Programming Model'!K17</f>
         <v>2</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="10">
+        <f>'Genetic Algorithm'!K17</f>
         <v>2</v>
       </c>
       <c r="E52" s="37">
         <v>15</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
+        <f>'Linear Programming Model'!M17</f>
         <v>3</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="10">
+        <f>'Genetic Algorithm'!M17</f>
         <v>3</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="I52" s="71" t="s">
         <v>79</v>
       </c>
       <c r="J52" s="37">
@@ -18312,7 +18375,7 @@
         <f>'Genetic Algorithm'!T17</f>
         <v>55.777669429779003</v>
       </c>
-      <c r="R52" s="78">
+      <c r="R52" s="77">
         <f>'Linear Programming Model'!V17</f>
         <v>1.66</v>
       </c>
@@ -18328,22 +18391,26 @@
       <c r="B53" s="20">
         <v>15</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="17">
+        <f>'Linear Programming Model'!K18</f>
         <v>3</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="14">
+        <f>'Genetic Algorithm'!K18</f>
         <v>3</v>
       </c>
       <c r="E53" s="38">
         <v>10</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="17">
+        <f>'Linear Programming Model'!M18</f>
         <v>2</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G53" s="14">
+        <f>'Genetic Algorithm'!M18</f>
         <v>2</v>
       </c>
-      <c r="I53" s="73" t="s">
+      <c r="I53" s="72" t="s">
         <v>80</v>
       </c>
       <c r="J53" s="38">
@@ -18376,11 +18443,11 @@
         <f>'Genetic Algorithm'!T18</f>
         <v>115.16916251182499</v>
       </c>
-      <c r="R53" s="79">
+      <c r="R53" s="78">
         <f>'Linear Programming Model'!V18</f>
         <v>135.85</v>
       </c>
-      <c r="S53" s="77">
+      <c r="S53" s="76">
         <f>'Genetic Algorithm'!U18</f>
         <v>0.02</v>
       </c>
@@ -18392,19 +18459,23 @@
       <c r="B54" s="41">
         <v>5</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="41">
+        <f>'Linear Programming Model'!K19</f>
         <v>2</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="68">
+        <f>'Genetic Algorithm'!K19</f>
         <v>3</v>
       </c>
       <c r="E54" s="41">
         <v>5</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="41">
+        <f>'Linear Programming Model'!M19</f>
         <v>2</v>
       </c>
       <c r="G54" s="8">
+        <f>'Genetic Algorithm'!M19</f>
         <v>2</v>
       </c>
       <c r="I54" s="35" t="s">
@@ -18457,19 +18528,23 @@
       <c r="B55" s="18">
         <v>5</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="79">
+        <f>'Linear Programming Model'!K20</f>
         <v>3</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="10">
+        <f>'Genetic Algorithm'!K20</f>
         <v>2</v>
       </c>
       <c r="E55" s="37">
         <v>5</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="18">
+        <f>'Linear Programming Model'!M20</f>
         <v>2</v>
       </c>
       <c r="G55" s="10">
+        <f>'Genetic Algorithm'!M20</f>
         <v>2</v>
       </c>
       <c r="I55" s="35" t="s">
@@ -18522,19 +18597,23 @@
       <c r="B56" s="18">
         <v>5</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
+        <f>'Linear Programming Model'!K21</f>
         <v>2</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="10">
+        <f>'Genetic Algorithm'!K21</f>
         <v>2</v>
       </c>
       <c r="E56" s="37">
         <v>5</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="18">
+        <f>'Linear Programming Model'!M21</f>
         <v>2</v>
       </c>
       <c r="G56" s="10">
+        <f>'Genetic Algorithm'!M21</f>
         <v>2</v>
       </c>
       <c r="I56" s="35" t="s">
@@ -18587,19 +18666,23 @@
       <c r="B57" s="18">
         <v>5</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
+        <f>'Linear Programming Model'!K22</f>
         <v>2</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="10">
+        <f>'Genetic Algorithm'!K22</f>
         <v>2</v>
       </c>
       <c r="E57" s="18">
         <v>5</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="18">
+        <f>'Linear Programming Model'!M22</f>
         <v>2</v>
       </c>
       <c r="G57" s="10">
+        <f>'Genetic Algorithm'!M22</f>
         <v>2</v>
       </c>
       <c r="I57" s="35" t="s">
@@ -18652,19 +18735,23 @@
       <c r="B58" s="18">
         <v>5</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
+        <f>'Linear Programming Model'!K23</f>
         <v>2</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="66">
+        <f>'Genetic Algorithm'!K23</f>
         <v>3</v>
       </c>
       <c r="E58" s="18">
         <v>5</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="18">
+        <f>'Linear Programming Model'!M23</f>
         <v>1</v>
       </c>
       <c r="G58" s="66">
+        <f>'Genetic Algorithm'!M23</f>
         <v>2</v>
       </c>
       <c r="I58" s="35" t="s">
@@ -18717,19 +18804,23 @@
       <c r="B59" s="18">
         <v>5</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
+        <f>'Linear Programming Model'!K24</f>
         <v>2</v>
       </c>
-      <c r="D59" s="63">
+      <c r="D59" s="66">
+        <f>'Genetic Algorithm'!K24</f>
         <v>3</v>
       </c>
       <c r="E59" s="18">
         <v>5</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="18">
+        <f>'Linear Programming Model'!M24</f>
         <v>2</v>
       </c>
       <c r="G59" s="10">
+        <f>'Genetic Algorithm'!M24</f>
         <v>2</v>
       </c>
       <c r="I59" s="35" t="s">
@@ -18781,19 +18872,23 @@
       <c r="B60" s="18">
         <v>5</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="18">
+        <f>'Linear Programming Model'!K25</f>
         <v>2</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="10">
+        <f>'Genetic Algorithm'!K25</f>
         <v>2</v>
       </c>
       <c r="E60" s="18">
         <v>7</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="18">
+        <f>'Linear Programming Model'!M25</f>
         <v>3</v>
       </c>
       <c r="G60" s="10">
+        <f>'Genetic Algorithm'!M25</f>
         <v>3</v>
       </c>
       <c r="I60" s="35" t="s">
@@ -18845,19 +18940,23 @@
       <c r="B61" s="18">
         <v>5</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="18">
+        <f>'Linear Programming Model'!K26</f>
         <v>2</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="10">
+        <f>'Genetic Algorithm'!K26</f>
         <v>2</v>
       </c>
       <c r="E61" s="18">
         <v>7</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="79">
+        <f>'Linear Programming Model'!M26</f>
         <v>3</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="10">
+        <f>'Genetic Algorithm'!M26</f>
         <v>2</v>
       </c>
       <c r="I61" s="35" t="s">
@@ -18909,19 +19008,23 @@
       <c r="B62" s="18">
         <v>7</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="18">
+        <f>'Linear Programming Model'!K27</f>
         <v>2</v>
       </c>
-      <c r="D62" s="63">
+      <c r="D62" s="66">
+        <f>'Genetic Algorithm'!K27</f>
         <v>3</v>
       </c>
       <c r="E62" s="18">
         <v>5</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="18">
+        <f>'Linear Programming Model'!M27</f>
         <v>2</v>
       </c>
       <c r="G62" s="10">
+        <f>'Genetic Algorithm'!M27</f>
         <v>2</v>
       </c>
       <c r="I62" s="35" t="s">
@@ -18973,19 +19076,23 @@
       <c r="B63" s="18">
         <v>7</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="18">
+        <f>'Linear Programming Model'!K28</f>
         <v>2</v>
       </c>
-      <c r="D63" s="63">
+      <c r="D63" s="66">
+        <f>'Genetic Algorithm'!K28</f>
         <v>3</v>
       </c>
       <c r="E63" s="37">
         <v>5</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="18">
+        <f>'Linear Programming Model'!M28</f>
         <v>2</v>
       </c>
       <c r="G63" s="10">
+        <f>'Genetic Algorithm'!M28</f>
         <v>2</v>
       </c>
       <c r="I63" s="35" t="s">
@@ -19037,19 +19144,23 @@
       <c r="B64" s="18">
         <v>5</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="18">
+        <f>'Linear Programming Model'!K29</f>
         <v>1</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="66">
+        <f>'Genetic Algorithm'!K29</f>
         <v>2</v>
       </c>
       <c r="E64" s="37">
         <v>5</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="18">
+        <f>'Linear Programming Model'!M29</f>
         <v>2</v>
       </c>
       <c r="G64" s="10">
+        <f>'Genetic Algorithm'!M29</f>
         <v>2</v>
       </c>
       <c r="I64" s="35" t="s">
@@ -19101,19 +19212,23 @@
       <c r="B65" s="18">
         <v>5</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="18">
+        <f>'Linear Programming Model'!K30</f>
         <v>2</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="10">
+        <f>'Genetic Algorithm'!K30</f>
         <v>2</v>
       </c>
       <c r="E65" s="37">
         <v>5</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="18">
+        <f>'Linear Programming Model'!M30</f>
         <v>2</v>
       </c>
       <c r="G65" s="10">
+        <f>'Genetic Algorithm'!M30</f>
         <v>2</v>
       </c>
       <c r="I65" s="35" t="s">
@@ -19165,19 +19280,23 @@
       <c r="B66" s="18">
         <v>5</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="18">
+        <f>'Linear Programming Model'!K31</f>
         <v>1</v>
       </c>
-      <c r="D66" s="63">
+      <c r="D66" s="66">
+        <f>'Genetic Algorithm'!K31</f>
         <v>3</v>
       </c>
       <c r="E66" s="37">
         <v>5</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="18">
+        <f>'Linear Programming Model'!M31</f>
         <v>1</v>
       </c>
       <c r="G66" s="66">
+        <f>'Genetic Algorithm'!M31</f>
         <v>2</v>
       </c>
       <c r="I66" s="35" t="s">
@@ -19229,19 +19348,23 @@
       <c r="B67" s="17">
         <v>5</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="17">
+        <f>'Linear Programming Model'!K32</f>
         <v>2</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="14">
+        <f>'Genetic Algorithm'!K32</f>
         <v>2</v>
       </c>
       <c r="E67" s="17">
         <v>5</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="80">
+        <f>'Linear Programming Model'!M32</f>
         <v>2</v>
       </c>
-      <c r="G67" s="69">
+      <c r="G67" s="14">
+        <f>'Genetic Algorithm'!M32</f>
         <v>1</v>
       </c>
       <c r="I67" s="36" t="s">
@@ -19327,8 +19450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF8012-82CB-433B-99C5-7CDA26CE1160}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B3663-72B7-4EC7-BCDB-C4291DA3A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4321463-1D00-4380-B31D-9FEC0AD96405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
@@ -762,10 +762,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,10 +1292,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,10 +2320,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -2870,10 +2870,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,10 +3415,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,10 +4437,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -9864,32 +9864,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="50.28515625" customWidth="1"/>
     <col min="25" max="25" width="58.5703125" customWidth="1"/>
     <col min="26" max="26" width="80.42578125" customWidth="1"/>
@@ -10863,13 +10863,13 @@
         <v>73</v>
       </c>
       <c r="J17" s="36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" s="62">
         <v>2</v>
       </c>
       <c r="L17" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M17" s="65">
         <v>3</v>
@@ -10878,7 +10878,7 @@
         <v>73</v>
       </c>
       <c r="Q17" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R17" s="49">
         <v>60.05</v>
@@ -10887,7 +10887,7 @@
         <v>240.09</v>
       </c>
       <c r="T17" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U17" s="49">
         <v>11.09</v>
@@ -10922,13 +10922,13 @@
         <v>74</v>
       </c>
       <c r="J18" s="37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K18" s="63">
         <v>3</v>
       </c>
       <c r="L18" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M18" s="66">
         <v>2</v>
@@ -10937,7 +10937,7 @@
         <v>74</v>
       </c>
       <c r="Q18" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R18" s="50">
         <v>5.91</v>
@@ -10946,7 +10946,7 @@
         <v>0.22</v>
       </c>
       <c r="T18" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U18" s="50">
         <v>60.05</v>
@@ -10980,13 +10980,13 @@
       <c r="I19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="40">
         <v>5</v>
       </c>
       <c r="K19" s="62">
         <v>2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="6">
         <v>5</v>
       </c>
       <c r="M19" s="65">
@@ -11181,7 +11181,7 @@
       <c r="S22" s="52">
         <v>0.02</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="3">
         <v>5</v>
       </c>
       <c r="U22" s="49">
@@ -11222,8 +11222,8 @@
       <c r="K23" s="62">
         <v>2</v>
       </c>
-      <c r="L23" s="18">
-        <v>7</v>
+      <c r="L23" s="3">
+        <v>5</v>
       </c>
       <c r="M23" s="65">
         <v>1</v>
@@ -11240,8 +11240,8 @@
       <c r="S23" s="52">
         <v>0.02</v>
       </c>
-      <c r="T23" s="18">
-        <v>7</v>
+      <c r="T23" s="3">
+        <v>5</v>
       </c>
       <c r="U23" s="49">
         <v>0.05</v>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="Y23" s="68"/>
     </row>
-    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
@@ -11282,8 +11282,8 @@
       <c r="K24" s="62">
         <v>2</v>
       </c>
-      <c r="L24" s="18">
-        <v>7</v>
+      <c r="L24" s="3">
+        <v>5</v>
       </c>
       <c r="M24" s="65">
         <v>2</v>
@@ -11301,7 +11301,7 @@
         <v>0.02</v>
       </c>
       <c r="T24" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U24" s="49">
         <v>0.04</v>
@@ -11312,7 +11312,7 @@
       <c r="X24" s="68"/>
       <c r="Y24" s="68"/>
     </row>
-    <row r="25" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -12124,8 +12124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="O25:U33"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13089,13 +13089,13 @@
         <v>73</v>
       </c>
       <c r="J17" s="61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" s="62">
         <v>2</v>
       </c>
       <c r="L17" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M17" s="65">
         <v>3</v>
@@ -13104,7 +13104,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="49">
         <v>115.19425535201999</v>
@@ -13113,7 +13113,7 @@
         <v>0.02</v>
       </c>
       <c r="S17" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T17" s="49">
         <v>55.777669429779003</v>
@@ -13148,13 +13148,13 @@
         <v>74</v>
       </c>
       <c r="J18" s="12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K18" s="63">
         <v>3</v>
       </c>
       <c r="L18" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M18" s="66">
         <v>2</v>
@@ -13163,7 +13163,7 @@
         <v>74</v>
       </c>
       <c r="P18" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="50">
         <v>74.1637153625488</v>
@@ -13172,7 +13172,7 @@
         <v>0.02</v>
       </c>
       <c r="S18" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" s="50">
         <v>115.16916251182499</v>
@@ -14344,8 +14344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17355,7 +17355,7 @@
         <v>73</v>
       </c>
       <c r="B52" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C52" s="17">
         <f>'Linear Programming Model'!K17</f>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F52" s="17">
         <f>'Linear Programming Model'!M17</f>
@@ -17380,7 +17380,7 @@
         <v>73</v>
       </c>
       <c r="J52" s="36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K52" s="3">
         <f>'Linear Programming Model'!R17</f>
@@ -17399,7 +17399,7 @@
         <v>0.02</v>
       </c>
       <c r="O52" s="36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <f>'Linear Programming Model'!U17</f>
@@ -17423,7 +17423,7 @@
         <v>74</v>
       </c>
       <c r="B53" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C53" s="16">
         <f>'Linear Programming Model'!K18</f>
@@ -17433,8 +17433,8 @@
         <f>'Genetic Algorithm'!K18</f>
         <v>3</v>
       </c>
-      <c r="E53" s="37">
-        <v>10</v>
+      <c r="E53" s="36">
+        <v>15</v>
       </c>
       <c r="F53" s="16">
         <f>'Linear Programming Model'!M18</f>
@@ -17448,7 +17448,7 @@
         <v>74</v>
       </c>
       <c r="J53" s="37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K53" s="12">
         <f>'Linear Programming Model'!R18</f>
@@ -17467,7 +17467,7 @@
         <v>0.02</v>
       </c>
       <c r="O53" s="37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P53" s="12">
         <f>'Linear Programming Model'!U18</f>
@@ -18485,7 +18485,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18510,7 +18510,7 @@
   <dimension ref="A3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4321463-1D00-4380-B31D-9FEC0AD96405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694E540-8871-44CB-90FC-C3C0E7654CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
@@ -2756,7 +2756,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Memory  vs Problem Size</a:t>
+              <a:t>Memory vs Problem Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2799,6 +2799,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Memory vs Problem Size</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3876,6 +3879,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Memory vs Problem Size</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4396,6 +4402,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Memory vs Problem Size</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -9457,15 +9466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1566862</xdr:colOff>
+      <xdr:colOff>1600480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>130268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>338418</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>15968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9864,8 +9873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12124,8 +12133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14344,8 +14353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14353,16 +14362,17 @@
     <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -14416,9 +14426,6 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -14466,9 +14473,6 @@
       <c r="O3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="45" t="s">
-        <v>62</v>
-      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
@@ -14594,9 +14598,6 @@
         <f t="shared" ref="O5" si="1">((N5-K5)/K5)*100</f>
         <v>4.9689440993778495</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
@@ -14719,9 +14720,6 @@
         <f t="shared" si="3"/>
         <v>9.538950715421489</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -14844,9 +14842,6 @@
         <f t="shared" si="3"/>
         <v>38.294741442841193</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
@@ -14968,9 +14963,6 @@
       <c r="O11" s="9">
         <f t="shared" si="3"/>
         <v>5.8902132443322177</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18485,7 +18477,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18507,16 +18499,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E007A-B4F4-42D1-B999-C7560A275CB5}">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.140625" customWidth="1"/>
@@ -18632,7 +18624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -18643,7 +18635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -18652,6 +18644,41 @@
       </c>
       <c r="C19" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694E540-8871-44CB-90FC-C3C0E7654CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A20E5-01FC-480A-A66B-0F93B304B157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Programming Model" sheetId="3" r:id="rId1"/>
     <sheet name="Genetic Algorithm" sheetId="4" r:id="rId2"/>
     <sheet name="Comparison" sheetId="1" r:id="rId3"/>
     <sheet name="Data Analysis" sheetId="5" r:id="rId4"/>
-    <sheet name="Archive" sheetId="6" r:id="rId5"/>
+    <sheet name="Archive" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="81">
   <si>
     <t>LT1</t>
   </si>
@@ -297,6 +297,15 @@
   <si>
     <t>Comparing the optimality, GA seems to perform less poorly on clustered datasets, one possible reason is that such problelms are generally less complex.</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average fleetsize used</t>
+  </si>
+  <si>
+    <t>Average Tour Duration</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -495,11 +504,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -584,6 +679,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9873,42 +9978,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="50.28515625" customWidth="1"/>
-    <col min="25" max="25" width="58.5703125" customWidth="1"/>
-    <col min="26" max="26" width="80.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="55.140625" customWidth="1"/>
-    <col min="29" max="29" width="52.28515625" customWidth="1"/>
-    <col min="30" max="30" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.33203125" customWidth="1"/>
+    <col min="25" max="25" width="58.5546875" customWidth="1"/>
+    <col min="26" max="26" width="80.44140625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="55.109375" customWidth="1"/>
+    <col min="29" max="29" width="52.33203125" customWidth="1"/>
+    <col min="30" max="30" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -9951,7 +10054,7 @@
       <c r="V1" s="22"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -10019,7 +10122,7 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -10079,7 +10182,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -10138,7 +10241,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -10197,7 +10300,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10359,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
@@ -10315,7 +10418,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
@@ -10374,7 +10477,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
@@ -10433,7 +10536,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
@@ -10492,7 +10595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
@@ -10551,7 +10654,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
@@ -10610,7 +10713,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
@@ -10669,7 +10772,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
@@ -10728,7 +10831,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>71</v>
       </c>
@@ -10787,7 +10890,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>72</v>
       </c>
@@ -10846,7 +10949,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>73</v>
       </c>
@@ -10905,7 +11008,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>74</v>
       </c>
@@ -10964,7 +11067,7 @@
         <v>135.85</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>28</v>
       </c>
@@ -11023,7 +11126,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
@@ -11082,7 +11185,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>30</v>
       </c>
@@ -11141,7 +11244,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
@@ -11200,7 +11303,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
@@ -11260,7 +11363,7 @@
       </c>
       <c r="Y23" s="68"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
@@ -11321,7 +11424,7 @@
       <c r="X24" s="68"/>
       <c r="Y24" s="68"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
@@ -11381,7 +11484,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
@@ -11440,7 +11543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
@@ -11499,7 +11602,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -11558,7 +11661,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>38</v>
       </c>
@@ -11617,7 +11720,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>39</v>
       </c>
@@ -11677,7 +11780,7 @@
       </c>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>40</v>
       </c>
@@ -11737,41 +11840,41 @@
       </c>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="3">
         <v>122.6</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="3">
         <v>341</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>463.6</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="3">
         <v>28</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="21">
         <v>28</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="17">
         <v>5</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="62">
         <v>2</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="3">
         <v>5</v>
       </c>
-      <c r="M32" s="66">
+      <c r="M32" s="65">
         <v>2</v>
       </c>
       <c r="P32" s="35" t="s">
@@ -11797,17 +11900,86 @@
       </c>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="84">
+        <f>AVERAGE(B3:B32)</f>
+        <v>108.15333333333328</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84">
+        <f>AVERAGE(E3:E32)</f>
+        <v>86.353333333333183</v>
+      </c>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="I33" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="84">
+        <f>AVERAGE(J3:J32)</f>
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="K33" s="84">
+        <f t="shared" ref="K33:M33" si="0">AVERAGE(K3:K32)</f>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="L33" s="84">
+        <f t="shared" si="0"/>
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="M33" s="84">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87">
+        <f>(B33+E33)/2</f>
+        <v>97.253333333333231</v>
+      </c>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="I34" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
+        <f>J33/K33</f>
+        <v>3.129032258064516</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="86">
+        <f>L33/M33</f>
+        <v>2.9846153846153847</v>
+      </c>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I35" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87">
+        <f>(K34+M34)/2</f>
+        <v>3.0568238213399503</v>
+      </c>
+      <c r="M35" s="88"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -11816,7 +11988,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -11825,7 +11997,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -11834,7 +12006,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -11843,7 +12015,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -11852,7 +12024,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -11861,7 +12033,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -11871,11 +12043,11 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -11893,7 +12065,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -11911,7 +12083,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11929,7 +12101,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11947,7 +12119,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11963,7 +12135,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11979,7 +12151,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11995,7 +12167,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -12011,7 +12183,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -12027,7 +12199,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -12043,7 +12215,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -12059,7 +12231,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -12075,7 +12247,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -12091,7 +12263,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -12107,7 +12279,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -12126,6 +12298,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12133,19 +12306,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -12185,7 +12358,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -12245,7 +12418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -12305,7 +12478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -12364,7 +12537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -12423,7 +12596,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
@@ -12482,7 +12655,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
@@ -12541,7 +12714,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
@@ -12600,7 +12773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
@@ -12659,7 +12832,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
@@ -12718,7 +12891,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
@@ -12777,7 +12950,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
@@ -12836,7 +13009,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
@@ -12895,7 +13068,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
@@ -12954,7 +13127,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>71</v>
       </c>
@@ -13013,7 +13186,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>72</v>
       </c>
@@ -13072,7 +13245,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>73</v>
       </c>
@@ -13131,7 +13304,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>74</v>
       </c>
@@ -13190,7 +13363,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>28</v>
       </c>
@@ -13249,7 +13422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
@@ -13308,7 +13481,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>30</v>
       </c>
@@ -13367,7 +13540,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
@@ -13427,7 +13600,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
@@ -13487,7 +13660,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
@@ -13549,7 +13722,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
@@ -13611,7 +13784,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
@@ -13673,7 +13846,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
@@ -13735,7 +13908,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -13797,7 +13970,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>38</v>
       </c>
@@ -13859,7 +14032,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>39</v>
       </c>
@@ -13921,7 +14094,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>40</v>
       </c>
@@ -13983,7 +14156,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>41</v>
       </c>
@@ -14045,31 +14218,31 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:23" x14ac:dyDescent="0.3">
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:23" x14ac:dyDescent="0.3">
       <c r="N39" s="3"/>
       <c r="O39" s="45"/>
       <c r="P39" s="3"/>
@@ -14081,7 +14254,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="45"/>
       <c r="P40" s="3"/>
@@ -14093,7 +14266,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.3">
       <c r="N41" s="3"/>
       <c r="O41" s="45"/>
       <c r="P41" s="3"/>
@@ -14105,7 +14278,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -14119,7 +14292,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -14133,7 +14306,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -14147,7 +14320,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -14161,7 +14334,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -14175,7 +14348,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -14189,7 +14362,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -14203,143 +14376,143 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
     </row>
   </sheetData>
@@ -14353,33 +14526,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -14400,7 +14573,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="22"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -14427,7 +14600,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -14477,7 +14650,7 @@
       <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -14538,7 +14711,7 @@
         <v>-3.1546996684485142</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -14599,7 +14772,7 @@
         <v>4.9689440993778495</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
@@ -14660,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -14721,7 +14894,7 @@
         <v>9.538950715421489</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
@@ -14782,7 +14955,7 @@
         <v>-0.25340933014199418</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
@@ -14843,7 +15016,7 @@
         <v>38.294741442841193</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
@@ -14904,7 +15077,7 @@
         <v>-1.6897821727982081</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
@@ -14965,7 +15138,7 @@
         <v>5.8902132443322177</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>8</v>
       </c>
@@ -15025,7 +15198,7 @@
         <v>265.3362783242149</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
@@ -15085,7 +15258,7 @@
         <v>120.19265520407774</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
@@ -15145,7 +15318,7 @@
         <v>238.67715024631337</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -15205,7 +15378,7 @@
         <v>513.75844584839683</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>71</v>
       </c>
@@ -15264,7 +15437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>72</v>
       </c>
@@ -15323,7 +15496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>73</v>
       </c>
@@ -15382,7 +15555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>74</v>
       </c>
@@ -15441,7 +15614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
@@ -15500,7 +15673,7 @@
         <v>52.75791646345791</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>29</v>
       </c>
@@ -15559,7 +15732,7 @@
         <v>63.620450769658476</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
@@ -15618,7 +15791,7 @@
         <v>15.497813099743382</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>31</v>
       </c>
@@ -15677,7 +15850,7 @@
         <v>-0.89043548698105346</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>32</v>
       </c>
@@ -15736,7 +15909,7 @@
         <v>15.540540540540546</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>33</v>
       </c>
@@ -15795,7 +15968,7 @@
         <v>29.584580601972799</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>34</v>
       </c>
@@ -15854,7 +16027,7 @@
         <v>24.782290951360249</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>35</v>
       </c>
@@ -15913,7 +16086,7 @@
         <v>67.585676410520207</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>36</v>
       </c>
@@ -15972,7 +16145,7 @@
         <v>-2.2361641794387315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>37</v>
       </c>
@@ -16031,7 +16204,7 @@
         <v>9.8118820109606446</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>38</v>
       </c>
@@ -16090,7 +16263,7 @@
         <v>-19.790232056746888</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>39</v>
       </c>
@@ -16149,7 +16322,7 @@
         <v>-0.43215456949067188</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
@@ -16208,7 +16381,7 @@
         <v>4.5977011494252924</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>41</v>
       </c>
@@ -16269,8 +16442,8 @@
         <v>-8.244369021907147</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -16298,7 +16471,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -16338,7 +16511,7 @@
       </c>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -16390,7 +16563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>0</v>
       </c>
@@ -16458,7 +16631,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>1</v>
       </c>
@@ -16526,7 +16699,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>2</v>
       </c>
@@ -16594,7 +16767,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>3</v>
       </c>
@@ -16662,7 +16835,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>4</v>
       </c>
@@ -16730,7 +16903,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>5</v>
       </c>
@@ -16798,7 +16971,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>7</v>
       </c>
@@ -16866,7 +17039,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>6</v>
       </c>
@@ -16934,7 +17107,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>8</v>
       </c>
@@ -17002,7 +17175,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>9</v>
       </c>
@@ -17070,7 +17243,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>10</v>
       </c>
@@ -17138,7 +17311,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>11</v>
       </c>
@@ -17206,7 +17379,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>71</v>
       </c>
@@ -17274,7 +17447,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>72</v>
       </c>
@@ -17342,7 +17515,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>73</v>
       </c>
@@ -17410,7 +17583,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>74</v>
       </c>
@@ -17478,7 +17651,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>28</v>
       </c>
@@ -17547,7 +17720,7 @@
       </c>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
         <v>29</v>
       </c>
@@ -17616,7 +17789,7 @@
       </c>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>30</v>
       </c>
@@ -17685,7 +17858,7 @@
       </c>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>31</v>
       </c>
@@ -17754,7 +17927,7 @@
       </c>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>32</v>
       </c>
@@ -17823,7 +17996,7 @@
       </c>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>33</v>
       </c>
@@ -17891,7 +18064,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>34</v>
       </c>
@@ -17959,7 +18132,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
@@ -18027,7 +18200,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>36</v>
       </c>
@@ -18095,7 +18268,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>37</v>
       </c>
@@ -18163,7 +18336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>38</v>
       </c>
@@ -18231,7 +18404,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>39</v>
       </c>
@@ -18299,7 +18472,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
         <v>40</v>
       </c>
@@ -18367,7 +18540,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>41</v>
       </c>
@@ -18435,35 +18608,35 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="82" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L83" s="3"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L84" s="3"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L90" s="3"/>
     </row>
   </sheetData>
@@ -18477,17 +18650,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -18501,21 +18674,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E007A-B4F4-42D1-B999-C7560A275CB5}">
   <dimension ref="A3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -18532,8 +18705,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="82" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
@@ -18543,8 +18716,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -18554,7 +18727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -18568,7 +18741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -18582,7 +18755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -18596,7 +18769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -18610,7 +18783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -18624,8 +18797,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="82" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
@@ -18635,8 +18808,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="82" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
@@ -18646,7 +18819,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="83"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -18656,27 +18832,27 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>61</v>
       </c>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A20E5-01FC-480A-A66B-0F93B304B157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834703FD-175F-49AD-AB84-32A78372FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
@@ -16,8 +16,6 @@
     <sheet name="Linear Programming Model" sheetId="3" r:id="rId1"/>
     <sheet name="Genetic Algorithm" sheetId="4" r:id="rId2"/>
     <sheet name="Comparison" sheetId="1" r:id="rId3"/>
-    <sheet name="Data Analysis" sheetId="5" r:id="rId4"/>
-    <sheet name="Archive" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="51">
   <si>
     <t>LT1</t>
   </si>
@@ -191,92 +189,6 @@
     <t>Cannot find solution</t>
   </si>
   <si>
-    <t>Plots</t>
-  </si>
-  <si>
-    <t>Problem Size vs Time</t>
-  </si>
-  <si>
-    <t>Problem Size vs Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Solution Cost (Tight and Large Time Windows) </t>
-  </si>
-  <si>
-    <t>Penalty Costs (Tight and Large Time windows)</t>
-  </si>
-  <si>
-    <t>Distance (Tight and Large Time windows)</t>
-  </si>
-  <si>
-    <t>Memory vs (Randomised and Clusters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time vs (Randomised and Clusters) </t>
-  </si>
-  <si>
-    <t>Hypothesis</t>
-  </si>
-  <si>
-    <t>Larger Problem size -&gt; Longer Computation</t>
-  </si>
-  <si>
-    <t>Larger Problem size -&gt; More memory</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Tighter time windows will experience a larger mean solution cost</t>
-  </si>
-  <si>
-    <t>Tighter time windows will experience a larger mean penalty cost</t>
-  </si>
-  <si>
-    <t>Tighter time windows may result in lower or equivalent distance cost</t>
-  </si>
-  <si>
-    <t>Randomised takes longer to compute</t>
-  </si>
-  <si>
-    <t>Randomised takes more memory</t>
-  </si>
-  <si>
-    <t>GA is overall less optimal given that they allocate a larger fleetsize for the same problem size</t>
-  </si>
-  <si>
-    <t>GA takes longer time to compute at problem size &lt;10, however, takes significantly less memory than LP model.</t>
-  </si>
-  <si>
-    <t>GA is less optimal than LP Model as it generates a solution cost that deviaites from the optimal value more signficantly.</t>
-  </si>
-  <si>
-    <t>Fleetsize usage (Tight and Large Time windows)</t>
-  </si>
-  <si>
-    <t>Tighter time windows will result in more chaotic routes, whereas without time windows,  it will be significantly easier to draw the routes intuitively by hand. 
-The difficulty of drawing the routes by hand increases with problem size.</t>
-  </si>
-  <si>
-    <t>Route Analysis(Analyse the difficulty of planning routes by hand, for clustered routes as well)</t>
-  </si>
-  <si>
-    <t>Tighter time windows may result in larger fleetsize
- -&gt; To minimise penalties</t>
-  </si>
-  <si>
-    <t>Show examples</t>
-  </si>
-  <si>
-    <t>Similar Trends as randomised, Same trend</t>
-  </si>
-  <si>
-    <t>Compare each set of datasets</t>
-  </si>
-  <si>
-    <t>Show examples: C1/C2 , C5/C6, C13/C14</t>
-  </si>
-  <si>
     <t>ET1</t>
   </si>
   <si>
@@ -289,15 +201,6 @@
     <t>EL2</t>
   </si>
   <si>
-    <t>Furthermore, GA mostly unable to find feasible solutions for problem sizes &gt; 9.</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Comparing the optimality, GA seems to perform less poorly on clustered datasets, one possible reason is that such problelms are generally less complex.</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -305,6 +208,9 @@
   </si>
   <si>
     <t>Average Tour Duration</t>
+  </si>
+  <si>
+    <t>All Test Cases</t>
   </si>
 </sst>
 </file>
@@ -594,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -679,8 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -721,40 +625,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>West Coast Pier</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time vs Problem Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -794,7 +664,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time vs Problem Size</c:v>
+            <c:v>Computational Time vs Problem Size (ILP)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -820,10 +690,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$Q$3:$Q$18</c:f>
+              <c:f>Comparison!$V$38:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -871,16 +741,148 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$R$3:$R$18</c:f>
+              <c:f>Comparison!$W$38:$W$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.12</c:v>
                 </c:pt>
@@ -928,6 +930,138 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +1069,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD53-42B7-B762-C39F8EB6B7CC}"/>
+              <c16:uniqueId val="{00000000-FCC2-4AFD-AD94-EC7CA996ACE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -947,541 +1081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1406204464"/>
-        <c:axId val="1406222768"/>
+        <c:axId val="468542272"/>
+        <c:axId val="468542688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1406204464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1406222768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1406222768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time in seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1406204464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Marina South Pier</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time vs Problem Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Time vs Problem Size</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$T$3:$T$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$U$3:$U$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60.06</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9AD6-4454-8CD7-311B5B32B6C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1376270528"/>
-        <c:axId val="1376271776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1376270528"/>
+        <c:axId val="468542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,12 +1202,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1376271776"/>
+        <c:crossAx val="468542688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1376271776"/>
+        <c:axId val="468542688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,8 +1248,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time in seconds</a:t>
+                  <a:t>Computational  Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1715,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1376270528"/>
+        <c:crossAx val="468542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1771,7 +1380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1786,45 +1395,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>West</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Coast Pier (Clustered)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time vs Problem Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1864,7 +1434,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time vs Problem Size</c:v>
+            <c:v>Computational Time vs Problem Size (GA)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1890,50 +1460,188 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$Q$19:$Q$32</c:f>
+              <c:f>Comparison!$V$38:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1941,51 +1649,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$R$19:$R$32</c:f>
+              <c:f>Comparison!$X$38:$X$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>25.829447746276799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>22.669869899749699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>37.480435132980297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>26.019586324691701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>59.158673286437903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18</c:v>
+                  <c:v>25.874504327774002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>59.285370588302598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>41.743326663970898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>69.881041049957204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.46</c:v>
+                  <c:v>77.164185047149601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06</c:v>
+                  <c:v>122.863599777221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13</c:v>
+                  <c:v>77.952114820480304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37</c:v>
+                  <c:v>121.71136951446501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>68.699625253677297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115.19425535201999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.1637153625488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.040760278701701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.289922952651899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.404691219329798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.558542490005401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.796185016631998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.77756857872</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.974759340286202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.083885669708202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.917395591735797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.988100290298405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.706961393356302</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.978414773941001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.570604085922199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.126785278320298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.8102688789367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.703251123428299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.857803583145099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.070387601852399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.176820039749099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.622814178466797</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.134951353073099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.654180765151899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68.765619039535494</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.774445772171006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99.544769287109304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80.434260368347097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.530781984329202</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85.4074223041534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55.777669429779003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115.16916251182499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.444683790206899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.6983287334442</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.642731189727701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.5159492492675</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.7281153202056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.164034366607602</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.409968852996798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.102237701416001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.212480783462503</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.638620853424001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.901150703430101</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23.380698919296201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.678284406661898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.6509561538696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +1839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94C7-4FC4-B994-5A8C4A318277}"/>
+              <c16:uniqueId val="{00000000-CE8B-4F39-9CD5-3481C689B880}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2005,1064 +1851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1406231920"/>
-        <c:axId val="1406231504"/>
+        <c:axId val="468542272"/>
+        <c:axId val="468542688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1406231920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1406231504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1406231504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time in seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1406231920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Marina South Pier (Clustered)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time vs Problem Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Time vs Problem Size</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$T$19:$T$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$U$19:$U$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAA3-4093-A25F-3140F02DC819}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1366673824"/>
-        <c:axId val="1366675488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1366673824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1366675488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1366675488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time in seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1366673824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>West Coast</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Pier</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Memory vs Problem Size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Memory vs Problem Size</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$Q$3:$Q$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$S$3:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-645B-4622-AECC-763B0AF85344}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="862435855"/>
-        <c:axId val="862441679"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="862435855"/>
+        <c:axId val="468542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,12 +1972,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862441679"/>
+        <c:crossAx val="468542688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="862441679"/>
+        <c:axId val="468542688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,11 +2018,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Memory</a:t>
+                  <a:t>Computational  Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> in MB</a:t>
+                  <a:t> in Seconds</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -3301,7 +2094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862435855"/>
+        <c:crossAx val="468542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3357,7 +2150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3392,21 +2185,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Marina</a:t>
+              <a:t>Memory</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> South Pier</a:t>
+              <a:t> Usage</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Memory vs Problem Size</a:t>
+              <a:t> vs Problem Size (ILP)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3450,7 +2237,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time vs Problem Size</c:v>
+            <c:v>Memory Usage vs Problem Size (ILP)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3476,67 +2263,199 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$T$3:$T$18</c:f>
+              <c:f>Comparison!$V$38:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="35">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="36">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="37">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="38">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="39">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="40">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="41">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="42">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="43">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="44">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="45">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$V$3:$V$18</c:f>
+              <c:f>Comparison!$Y$38:$Y$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -3562,7 +2481,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.02</c:v>
@@ -3574,16 +2493,148 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>4.01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="43">
                   <c:v>29.96</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="44">
                   <c:v>1.66</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="45">
                   <c:v>135.85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,7 +2642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9313-4E70-B3BC-9A7C7345C186}"/>
+              <c16:uniqueId val="{00000000-CE4A-4B13-A6BF-B9FCDC952E19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3603,11 +2654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="862432111"/>
-        <c:axId val="862435855"/>
+        <c:axId val="468542272"/>
+        <c:axId val="468542688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="862432111"/>
+        <c:axId val="468542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,8 +2699,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
+                  <a:t>Problem</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3719,12 +2775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862435855"/>
+        <c:crossAx val="468542688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="862435855"/>
+        <c:axId val="468542688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,8 +2821,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Memory in MB</a:t>
+                  <a:t>Memory</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Usage in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3836,7 +2897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862432111"/>
+        <c:crossAx val="468542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3892,7 +2953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3926,23 +2987,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>West</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Coast Pier (Clustered)</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Usage</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Memory vs Problem Size</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t> vs Problem Size (GA)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3985,7 +3040,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Memory vs Problem Size</c:v>
+            <c:v>Memory Usage vs Problem Size (GA)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -4011,50 +3066,188 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$Q$19:$Q$32</c:f>
+              <c:f>Comparison!$V$38:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4062,33 +3255,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Programming Model'!$S$19:$S$32</c:f>
+              <c:f>Comparison!$Z$38:$Z$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.02</c:v>
@@ -4097,7 +3290,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.02</c:v>
@@ -4107,6 +3300,144 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,7 +3445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2A9-47DF-933F-34318F4227A6}"/>
+              <c16:uniqueId val="{00000000-F587-4BAA-91A6-C89C9402AE5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4126,11 +3457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537803855"/>
-        <c:axId val="537801359"/>
+        <c:axId val="468542272"/>
+        <c:axId val="468542688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="537803855"/>
+        <c:axId val="468542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,8 +3502,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
+                  <a:t>Problem</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4242,12 +3578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537801359"/>
+        <c:crossAx val="468542688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537801359"/>
+        <c:axId val="468542688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,8 +3624,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Memory in MB</a:t>
+                  <a:t>Memory</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Usage in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4359,530 +3700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537803855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Marina South Pier (Clustered)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Memory</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs Problem Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Memory vs Problem Size</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$T$19:$T$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Programming Model'!$V$19:$V$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B434-41E5-8A9E-4FA711AB80A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="878014975"/>
-        <c:axId val="878015807"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="878014975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Problem Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="878015807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="878015807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Memory in MB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="878014975"/>
+        <c:crossAx val="468542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5059,166 +3877,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7322,2091 +5980,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>94297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1122045</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEB5ECB-3ED8-44E1-BB0A-1BA69875917B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE00E004-E93A-4225-94D5-E8A897166B1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9426,27 +6020,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1624012</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B4E80B-D5F3-49EE-B1FA-830F6E1245A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721017B5-616F-4C2F-91D2-1FD3A744D1C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9462,27 +6058,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1095374</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1157792</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22EF88F-029A-4899-9320-A9E8167EA869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3AA897-2B53-4744-BEA4-B5F3419BF31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9498,27 +6096,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1204912</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1492288</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765C2FB-D542-467B-9804-98C84A8C52FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197A5B05-EC09-410B-B45C-71F1B70691BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9527,150 +6127,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB263FC1-61A4-4735-9DF2-0F9B8511D480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1600480</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15968</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51750F17-E93F-48F0-8F8B-F4145ABF45D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CBE654-EBB3-4D70-AB21-7E84C3F8490B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1204912</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F998ED-135B-4D9A-9999-8F6F694DC890}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9978,7 +6434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -10833,7 +7289,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B15" s="17">
         <v>197.4</v>
@@ -10854,7 +7310,7 @@
         <v>473.10000000000701</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J15" s="36">
         <v>15</v>
@@ -10869,7 +7325,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="18">
         <v>15</v>
@@ -10892,7 +7348,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B16" s="17">
         <v>132.1</v>
@@ -10913,7 +7369,7 @@
         <v>466.599999989499</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J16" s="36">
         <v>10</v>
@@ -10928,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="18">
         <v>10</v>
@@ -10951,7 +7407,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17">
         <v>166.39999999999901</v>
@@ -10972,7 +7428,7 @@
         <v>239.8</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J17" s="36">
         <v>15</v>
@@ -10987,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="18">
         <v>15</v>
@@ -11010,7 +7466,7 @@
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B18" s="16">
         <v>137.30000000000001</v>
@@ -11031,7 +7487,7 @@
         <v>136.9</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J18" s="37">
         <v>10</v>
@@ -11046,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="19">
         <v>10</v>
@@ -11901,57 +8357,57 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="84">
+      <c r="A33" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="82">
         <f>AVERAGE(B3:B32)</f>
         <v>108.15333333333328</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84">
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82">
         <f>AVERAGE(E3:E32)</f>
         <v>86.353333333333183</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-      <c r="I33" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" s="84">
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="I33" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="82">
         <f>AVERAGE(J3:J32)</f>
         <v>6.4666666666666668</v>
       </c>
-      <c r="K33" s="84">
+      <c r="K33" s="82">
         <f t="shared" ref="K33:M33" si="0">AVERAGE(K3:K32)</f>
         <v>2.0666666666666669</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L33" s="82">
         <f t="shared" si="0"/>
         <v>6.4666666666666668</v>
       </c>
-      <c r="M33" s="84">
+      <c r="M33" s="82">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87">
+      <c r="A34" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85">
         <f>(B33+E33)/2</f>
         <v>97.253333333333231</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
-      <c r="I34" s="89" t="s">
-        <v>79</v>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="I34" s="87" t="s">
+        <v>48</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
@@ -11959,23 +8415,23 @@
         <v>3.129032258064516</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="86">
+      <c r="M34" s="84">
         <f>L33/M33</f>
         <v>2.9846153846153847</v>
       </c>
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I35" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87">
+      <c r="I35" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85">
         <f>(K34+M34)/2</f>
         <v>3.0568238213399503</v>
       </c>
-      <c r="M35" s="88"/>
+      <c r="M35" s="86"/>
       <c r="W35" s="3"/>
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12306,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -13129,7 +9585,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B15" s="27">
         <v>12000279.7999999</v>
@@ -13150,7 +9606,7 @@
         <v>10001759.3442764</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J15" s="61">
         <v>15</v>
@@ -13165,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P15" s="72">
         <v>15</v>
@@ -13188,7 +9644,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B16" s="27">
         <v>10000200.5</v>
@@ -13209,7 +9665,7 @@
         <v>10002932.893952399</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J16" s="61">
         <v>10</v>
@@ -13224,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="P16" s="72">
         <v>10</v>
@@ -13247,7 +9703,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B17" s="27">
         <v>10000243.800000001</v>
@@ -13268,7 +9724,7 @@
         <v>10000875.3570194</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J17" s="61">
         <v>15</v>
@@ -13283,7 +9739,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="P17" s="72">
         <v>15</v>
@@ -13306,7 +9762,7 @@
     </row>
     <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B18" s="28">
         <v>10000219.199999999</v>
@@ -13327,7 +9783,7 @@
         <v>10001165.961771</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J18" s="12">
         <v>10</v>
@@ -13342,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="P18" s="16">
         <v>10</v>
@@ -14524,10 +10980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="F50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15380,7 +11836,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3">
         <f>'Linear Programming Model'!B15</f>
@@ -15439,7 +11895,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <f>'Linear Programming Model'!B16</f>
@@ -15498,7 +11954,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <f>'Linear Programming Model'!B17</f>
@@ -15557,7 +12013,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12">
         <f>'Linear Programming Model'!B18</f>
@@ -16381,7 +12837,7 @@
         <v>4.5977011494252924</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>41</v>
       </c>
@@ -16442,8 +12898,8 @@
         <v>-8.244369021907147</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -16470,8 +12926,16 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U35" s="30"/>
+      <c r="V35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="22"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -16510,8 +12974,20 @@
         <v>21</v>
       </c>
       <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="10"/>
+    </row>
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -16562,8 +13038,26 @@
       <c r="S37" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>0</v>
       </c>
@@ -16630,8 +13124,26 @@
         <f>'Genetic Algorithm'!U3</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U38" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="40">
+        <v>4</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="X38" s="6">
+        <v>25.829447746276799</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>1</v>
       </c>
@@ -16698,8 +13210,26 @@
         <f>'Genetic Algorithm'!U4</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U39" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="17">
+        <v>3</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="3">
+        <v>22.669869899749699</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>2</v>
       </c>
@@ -16766,8 +13296,26 @@
         <f>'Genetic Algorithm'!U5</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U40" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="17">
+        <v>4</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="X40" s="3">
+        <v>37.480435132980297</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>3</v>
       </c>
@@ -16834,8 +13382,26 @@
         <f>'Genetic Algorithm'!U6</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U41" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="17">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X41" s="3">
+        <v>26.019586324691701</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>4</v>
       </c>
@@ -16902,8 +13468,26 @@
         <f>'Genetic Algorithm'!U7</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U42" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="17">
+        <v>6</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="X42" s="3">
+        <v>59.158673286437903</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>5</v>
       </c>
@@ -16970,8 +13554,26 @@
         <f>'Genetic Algorithm'!U8</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U43" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="17">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="X43" s="3">
+        <v>25.874504327774002</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>7</v>
       </c>
@@ -17038,8 +13640,26 @@
         <f>'Genetic Algorithm'!U9</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="V44" s="17">
+        <v>6</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="X44" s="3">
+        <v>59.285370588302598</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>6</v>
       </c>
@@ -17106,8 +13726,26 @@
         <f>'Genetic Algorithm'!U10</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U45" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" s="17">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="X45" s="3">
+        <v>41.743326663970898</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>8</v>
       </c>
@@ -17174,8 +13812,26 @@
         <f>'Genetic Algorithm'!U11</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U46" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="17">
+        <v>9</v>
+      </c>
+      <c r="W46" s="3">
+        <v>14.11</v>
+      </c>
+      <c r="X46" s="3">
+        <v>69.881041049957204</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>9</v>
       </c>
@@ -17242,8 +13898,26 @@
         <f>'Genetic Algorithm'!U12</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U47" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" s="17">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="X47" s="3">
+        <v>77.164185047149601</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>10</v>
       </c>
@@ -17310,8 +13984,26 @@
         <f>'Genetic Algorithm'!U13</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" s="17">
+        <v>9</v>
+      </c>
+      <c r="W48" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>122.863599777221</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>11</v>
       </c>
@@ -17378,10 +14070,28 @@
         <f>'Genetic Algorithm'!U14</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="V49" s="17">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="X49" s="3">
+        <v>77.952114820480304</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B50" s="18">
         <v>15</v>
@@ -17406,7 +14116,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="70" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J50" s="36">
         <v>15</v>
@@ -17446,10 +14156,28 @@
         <f>'Genetic Algorithm'!U15</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="V50" s="17">
+        <v>15</v>
+      </c>
+      <c r="W50" s="3">
+        <v>60.05</v>
+      </c>
+      <c r="X50" s="3">
+        <v>121.71136951446501</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B51" s="18">
         <v>10</v>
@@ -17474,7 +14202,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="70" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J51" s="36">
         <v>10</v>
@@ -17514,10 +14242,28 @@
         <f>'Genetic Algorithm'!U16</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V51" s="17">
+        <v>10</v>
+      </c>
+      <c r="W51" s="3">
+        <v>49.87</v>
+      </c>
+      <c r="X51" s="3">
+        <v>68.699625253677297</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>25.32</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B52" s="18">
         <v>15</v>
@@ -17542,7 +14288,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="70" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J52" s="36">
         <v>15</v>
@@ -17582,10 +14328,28 @@
         <f>'Genetic Algorithm'!U17</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U52" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V52" s="17">
+        <v>15</v>
+      </c>
+      <c r="W52" s="3">
+        <v>60.05</v>
+      </c>
+      <c r="X52" s="3">
+        <v>115.19425535201999</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>240.09</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B53" s="19">
         <v>10</v>
@@ -17610,7 +14374,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="71" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J53" s="37">
         <v>10</v>
@@ -17650,8 +14414,26 @@
         <f>'Genetic Algorithm'!U18</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V53" s="17">
+        <v>10</v>
+      </c>
+      <c r="W53" s="3">
+        <v>5.91</v>
+      </c>
+      <c r="X53" s="3">
+        <v>74.1637153625488</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>28</v>
       </c>
@@ -17718,9 +14500,27 @@
         <f>'Genetic Algorithm'!U19</f>
         <v>0.01</v>
       </c>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V54" s="40">
+        <v>5</v>
+      </c>
+      <c r="W54" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="X54" s="6">
+        <v>25.040760278701701</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
         <v>29</v>
       </c>
@@ -17787,9 +14587,27 @@
         <f>'Genetic Algorithm'!U20</f>
         <v>0.01</v>
       </c>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V55" s="17">
+        <v>5</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X55" s="3">
+        <v>24.289922952651899</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>30</v>
       </c>
@@ -17856,9 +14674,27 @@
         <f>'Genetic Algorithm'!U21</f>
         <v>0.01</v>
       </c>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V56" s="17">
+        <v>5</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="X56" s="3">
+        <v>20.404691219329798</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>31</v>
       </c>
@@ -17925,9 +14761,27 @@
         <f>'Genetic Algorithm'!U22</f>
         <v>0.01</v>
       </c>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57" s="17">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="X57" s="3">
+        <v>20.558542490005401</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>32</v>
       </c>
@@ -17994,9 +14848,27 @@
         <f>'Genetic Algorithm'!U23</f>
         <v>0.01</v>
       </c>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" s="17">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="X58" s="3">
+        <v>28.796185016631998</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>33</v>
       </c>
@@ -18063,8 +14935,26 @@
         <f>'Genetic Algorithm'!U24</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V59" s="17">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="X59" s="3">
+        <v>27.77756857872</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>34</v>
       </c>
@@ -18131,8 +15021,26 @@
         <f>'Genetic Algorithm'!U25</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V60" s="17">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="X60" s="3">
+        <v>28.974759340286202</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
@@ -18199,8 +15107,26 @@
         <f>'Genetic Algorithm'!U26</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" s="17">
+        <v>5</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X61" s="3">
+        <v>32.083885669708202</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>36</v>
       </c>
@@ -18267,8 +15193,26 @@
         <f>'Genetic Algorithm'!U27</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" s="17">
+        <v>7</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X62" s="3">
+        <v>56.917395591735797</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>37</v>
       </c>
@@ -18335,8 +15279,26 @@
         <f>'Genetic Algorithm'!U28</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V63" s="17">
+        <v>7</v>
+      </c>
+      <c r="W63" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="X63" s="3">
+        <v>69.988100290298405</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>38</v>
       </c>
@@ -18403,8 +15365,26 @@
         <f>'Genetic Algorithm'!U29</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U64" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V64" s="17">
+        <v>5</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X64" s="3">
+        <v>49.706961393356302</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>39</v>
       </c>
@@ -18471,8 +15451,26 @@
         <f>'Genetic Algorithm'!U30</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U65" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V65" s="17">
+        <v>5</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="X65" s="3">
+        <v>20.978414773941001</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
         <v>40</v>
       </c>
@@ -18539,8 +15537,26 @@
         <f>'Genetic Algorithm'!U31</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U66" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V66" s="17">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="X66" s="3">
+        <v>54.570604085922199</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>41</v>
       </c>
@@ -18607,257 +15623,632 @@
         <f>'Genetic Algorithm'!U32</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="82" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L83" s="3"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L84" s="3"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L90" s="3"/>
+      <c r="U67" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="V67" s="16">
+        <v>5</v>
+      </c>
+      <c r="W67" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="X67" s="12">
+        <v>41.126785278320298</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U68" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V68" s="40">
+        <v>3</v>
+      </c>
+      <c r="W68" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="X68" s="6">
+        <v>18.8102688789367</v>
+      </c>
+      <c r="Y68" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U69" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V69" s="17">
+        <v>4</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X69" s="3">
+        <v>27.703251123428299</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U70" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V70" s="17">
+        <v>3</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="X70" s="3">
+        <v>24.857803583145099</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U71" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V71" s="17">
+        <v>4</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="X71" s="3">
+        <v>26.070387601852399</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U72" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="17">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="X72" s="3">
+        <v>30.176820039749099</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U73" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="V73" s="17">
+        <v>6</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X73" s="3">
+        <v>37.622814178466797</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z73" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U74" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="V74" s="17">
+        <v>5</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="X74" s="3">
+        <v>40.134951353073099</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U75" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V75" s="17">
+        <v>6</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="X75" s="3">
+        <v>31.654180765151899</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z75" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U76" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="17">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="X76" s="3">
+        <v>68.765619039535494</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z76" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V77" s="17">
+        <v>9</v>
+      </c>
+      <c r="W77" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="X77" s="3">
+        <v>77.774445772171006</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z77" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U78" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V78" s="17">
+        <v>8</v>
+      </c>
+      <c r="W78" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="X78" s="3">
+        <v>99.544769287109304</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z78" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U79" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="V79" s="17">
+        <v>9</v>
+      </c>
+      <c r="W79" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="X79" s="3">
+        <v>80.434260368347097</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z79" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U80" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="V80" s="17">
+        <v>10</v>
+      </c>
+      <c r="W80" s="3">
+        <v>28.71</v>
+      </c>
+      <c r="X80" s="3">
+        <v>61.530781984329202</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="Z80" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U81" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V81" s="17">
+        <v>15</v>
+      </c>
+      <c r="W81" s="3">
+        <v>60.06</v>
+      </c>
+      <c r="X81" s="3">
+        <v>85.4074223041534</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>29.96</v>
+      </c>
+      <c r="Z81" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U82" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V82" s="17">
+        <v>10</v>
+      </c>
+      <c r="W82" s="3">
+        <v>11.09</v>
+      </c>
+      <c r="X82" s="3">
+        <v>55.777669429779003</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="Z82" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="21:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U83" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V83" s="16">
+        <v>15</v>
+      </c>
+      <c r="W83" s="12">
+        <v>60.05</v>
+      </c>
+      <c r="X83" s="12">
+        <v>115.16916251182499</v>
+      </c>
+      <c r="Y83" s="12">
+        <v>135.85</v>
+      </c>
+      <c r="Z83" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U84" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="V84" s="17">
+        <v>5</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="X84" s="3">
+        <v>22.444683790206899</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z84" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U85" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V85" s="17">
+        <v>5</v>
+      </c>
+      <c r="W85" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X85" s="3">
+        <v>24.6983287334442</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U86" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V86" s="17">
+        <v>5</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="X86" s="3">
+        <v>22.642731189727701</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z86" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U87" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" s="17">
+        <v>5</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="X87" s="3">
+        <v>24.5159492492675</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z87" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U88" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V88" s="17">
+        <v>5</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="X88" s="3">
+        <v>22.7281153202056</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z88" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U89" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V89" s="17">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="X89" s="3">
+        <v>39.164034366607602</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z89" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="90" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U90" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V90" s="17">
+        <v>7</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="X90" s="3">
+        <v>49.409968852996798</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z90" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="91" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U91" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V91" s="17">
+        <v>7</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="X91" s="3">
+        <v>61.102237701416001</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z91" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U92" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" s="17">
+        <v>5</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="X92" s="3">
+        <v>35.212480783462503</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z92" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U93" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V93" s="17">
+        <v>5</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="X93" s="3">
+        <v>39.638620853424001</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z93" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U94" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V94" s="17">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="X94" s="3">
+        <v>23.901150703430101</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z94" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U95" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V95" s="17">
+        <v>5</v>
+      </c>
+      <c r="W95" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="X95" s="3">
+        <v>23.380698919296201</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z95" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U96" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V96" s="17">
+        <v>5</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X96" s="3">
+        <v>17.678284406661898</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z96" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="21:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U97" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="V97" s="16">
+        <v>5</v>
+      </c>
+      <c r="W97" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="X97" s="12">
+        <v>25.6509561538696</v>
+      </c>
+      <c r="Y97" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="Z97" s="13">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF8012-82CB-433B-99C5-7CDA26CE1160}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E007A-B4F4-42D1-B999-C7560A275CB5}">
-  <dimension ref="A3:F31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834703FD-175F-49AD-AB84-32A78372FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB31C6D-1EC5-4E32-A2F9-ADAE0ED45DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Programming Model" sheetId="3" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -582,7 +582,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -6434,40 +6433,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="50.33203125" customWidth="1"/>
-    <col min="25" max="25" width="58.5546875" customWidth="1"/>
-    <col min="26" max="26" width="80.44140625" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="28" width="55.109375" customWidth="1"/>
-    <col min="29" max="29" width="52.33203125" customWidth="1"/>
-    <col min="30" max="30" width="33.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.28515625" customWidth="1"/>
+    <col min="25" max="25" width="58.5703125" customWidth="1"/>
+    <col min="26" max="26" width="80.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="55.140625" customWidth="1"/>
+    <col min="29" max="29" width="52.28515625" customWidth="1"/>
+    <col min="30" max="30" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -6510,7 +6509,7 @@
       <c r="V1" s="22"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -6578,7 +6577,7 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>43</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>44</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>46</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>135.85</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>28</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>30</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
@@ -7819,7 +7818,7 @@
       </c>
       <c r="Y23" s="68"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
@@ -7880,7 +7879,7 @@
       <c r="X24" s="68"/>
       <c r="Y24" s="68"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>38</v>
       </c>
@@ -8176,7 +8175,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>39</v>
       </c>
@@ -8236,7 +8235,7 @@
       </c>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>40</v>
       </c>
@@ -8296,7 +8295,7 @@
       </c>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>41</v>
       </c>
@@ -8356,57 +8355,57 @@
       </c>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="89" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="82">
+      <c r="B33" s="81">
         <f>AVERAGE(B3:B32)</f>
         <v>108.15333333333328</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81">
         <f>AVERAGE(E3:E32)</f>
         <v>86.353333333333183</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="I33" s="89" t="s">
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="I33" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="82">
+      <c r="J33" s="81">
         <f>AVERAGE(J3:J32)</f>
         <v>6.4666666666666668</v>
       </c>
-      <c r="K33" s="82">
+      <c r="K33" s="81">
         <f t="shared" ref="K33:M33" si="0">AVERAGE(K3:K32)</f>
         <v>2.0666666666666669</v>
       </c>
-      <c r="L33" s="82">
+      <c r="L33" s="81">
         <f t="shared" si="0"/>
         <v>6.4666666666666668</v>
       </c>
-      <c r="M33" s="82">
+      <c r="M33" s="81">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84">
         <f>(B33+E33)/2</f>
         <v>97.253333333333231</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="I34" s="87" t="s">
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="I34" s="86" t="s">
         <v>48</v>
       </c>
       <c r="J34" s="3"/>
@@ -8415,27 +8414,27 @@
         <v>3.129032258064516</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="84">
+      <c r="M34" s="83">
         <f>L33/M33</f>
         <v>2.9846153846153847</v>
       </c>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I35" s="88" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I35" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85">
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84">
         <f>(K34+M34)/2</f>
         <v>3.0568238213399503</v>
       </c>
-      <c r="M35" s="86"/>
+      <c r="M35" s="85"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -8444,7 +8443,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -8453,7 +8452,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -8462,7 +8461,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -8471,7 +8470,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -8480,7 +8479,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -8489,7 +8488,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -8499,11 +8498,11 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -8521,7 +8520,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -8539,7 +8538,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -8557,7 +8556,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -8575,7 +8574,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -8591,7 +8590,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -8607,7 +8606,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -8623,7 +8622,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -8639,7 +8638,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -8655,7 +8654,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -8671,7 +8670,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -8687,7 +8686,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -8703,7 +8702,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -8719,7 +8718,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -8735,7 +8734,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -8760,21 +8759,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -8814,7 +8813,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
@@ -9111,7 +9110,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
@@ -9478,13 +9477,13 @@
       <c r="D13" s="41">
         <v>10001908.5505399</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="79">
         <v>123.8</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="79">
         <v>452.628509719222</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="80">
         <v>576.42850971922201</v>
       </c>
       <c r="I13" s="31" t="s">
@@ -9524,7 +9523,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>43</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>44</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>46</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>28</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>30</v>
       </c>
@@ -9996,27 +9995,27 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3">
-        <v>83.1</v>
+        <v>77.3</v>
       </c>
       <c r="C22" s="3">
-        <v>231.20518358531299</v>
+        <v>264.066954643629</v>
       </c>
       <c r="D22" s="20">
-        <v>314.30518358531299</v>
+        <v>341.36695464362901</v>
       </c>
       <c r="E22" s="3">
         <v>86.2</v>
       </c>
       <c r="F22" s="3">
-        <v>488.83369330453598</v>
+        <v>605.47300215982796</v>
       </c>
       <c r="G22" s="21">
-        <v>575.03369330453597</v>
+        <v>691.673002159828</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>31</v>
@@ -10056,7 +10055,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10178,7 +10177,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
@@ -10240,27 +10239,27 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3">
-        <v>82.8</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3">
-        <v>134.24838012959</v>
+        <v>199.44060475161999</v>
       </c>
       <c r="D26" s="20">
-        <v>217.04838012958999</v>
+        <v>286.44060475162001</v>
       </c>
       <c r="E26" s="3">
-        <v>95.4</v>
+        <v>96.2</v>
       </c>
       <c r="F26" s="3">
-        <v>717.725701943844</v>
+        <v>477.31533477321801</v>
       </c>
       <c r="G26" s="21">
-        <v>813.12570194384398</v>
+        <v>573.515334773218</v>
       </c>
       <c r="I26" s="70" t="s">
         <v>35</v>
@@ -10275,7 +10274,7 @@
         <v>7</v>
       </c>
       <c r="M26" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="34" t="s">
@@ -10302,18 +10301,18 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="3">
-        <v>167.9</v>
+        <v>137.9</v>
       </c>
       <c r="C27" s="3">
-        <v>244.451403887688</v>
+        <v>244.62203023758099</v>
       </c>
       <c r="D27" s="20">
-        <v>412.35140388768798</v>
+        <v>382.52203023758102</v>
       </c>
       <c r="E27" s="3">
         <v>86.2</v>
@@ -10364,7 +10363,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
@@ -10426,27 +10425,27 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E29" s="3">
         <v>113.19999999999899</v>
       </c>
-      <c r="C29" s="3">
-        <v>138.50107991360699</v>
-      </c>
-      <c r="D29" s="20">
-        <v>251.701079913607</v>
-      </c>
-      <c r="E29" s="3">
-        <v>83.6</v>
-      </c>
       <c r="F29" s="3">
-        <v>97.032397408206904</v>
+        <v>103.943844492441</v>
       </c>
       <c r="G29" s="21">
-        <v>180.632397408206</v>
+        <v>217.14384449244099</v>
       </c>
       <c r="I29" s="70" t="s">
         <v>38</v>
@@ -10488,7 +10487,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>39</v>
       </c>
@@ -10550,7 +10549,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>40</v>
       </c>
@@ -10612,27 +10611,27 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="12">
-        <v>124.6</v>
+        <v>125.6</v>
       </c>
       <c r="C32" s="12">
-        <v>515.084233261338</v>
+        <v>572.92440604751505</v>
       </c>
       <c r="D32" s="24">
-        <v>639.68423326133802</v>
+        <v>698.52440604751496</v>
       </c>
       <c r="E32" s="12">
-        <v>17.399999999999999</v>
+        <v>28</v>
       </c>
       <c r="F32" s="12">
-        <v>8.2915766738660697</v>
+        <v>0</v>
       </c>
       <c r="G32" s="25">
-        <v>25.691576673865999</v>
+        <v>28</v>
       </c>
       <c r="I32" s="71" t="s">
         <v>41</v>
@@ -10647,7 +10646,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="35" t="s">
@@ -10674,33 +10673,32 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
       <c r="N39" s="3"/>
-      <c r="O39" s="45"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -10710,9 +10708,8 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
       <c r="N40" s="3"/>
-      <c r="O40" s="45"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -10722,9 +10719,8 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
       <c r="N41" s="3"/>
-      <c r="O41" s="45"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -10734,11 +10730,10 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -10748,11 +10743,10 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -10762,11 +10756,10 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -10776,11 +10769,10 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -10790,11 +10782,10 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -10804,11 +10795,10 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -10818,11 +10808,10 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="12:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -10832,144 +10821,77 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10982,33 +10904,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView topLeftCell="F50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -11029,7 +10951,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="22"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -11056,7 +10978,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -11106,7 +11028,7 @@
       <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -11167,7 +11089,7 @@
         <v>-3.1546996684485142</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -11228,7 +11150,7 @@
         <v>4.9689440993778495</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
@@ -11289,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -11350,7 +11272,7 @@
         <v>9.538950715421489</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
@@ -11411,7 +11333,7 @@
         <v>-0.25340933014199418</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
@@ -11472,7 +11394,7 @@
         <v>38.294741442841193</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
@@ -11533,7 +11455,7 @@
         <v>-1.6897821727982081</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
@@ -11594,7 +11516,7 @@
         <v>5.8902132443322177</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>8</v>
       </c>
@@ -11654,7 +11576,7 @@
         <v>265.3362783242149</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
@@ -11714,7 +11636,7 @@
         <v>120.19265520407774</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
@@ -11774,7 +11696,7 @@
         <v>238.67715024631337</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -11834,7 +11756,7 @@
         <v>513.75844584839683</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>43</v>
       </c>
@@ -11893,7 +11815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>44</v>
       </c>
@@ -11952,7 +11874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>45</v>
       </c>
@@ -12011,7 +11933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>46</v>
       </c>
@@ -12070,7 +11992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
@@ -12129,7 +12051,7 @@
         <v>52.75791646345791</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>29</v>
       </c>
@@ -12188,7 +12110,7 @@
         <v>63.620450769658476</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
@@ -12247,7 +12169,7 @@
         <v>15.497813099743382</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>31</v>
       </c>
@@ -12265,19 +12187,19 @@
       </c>
       <c r="E23" s="3">
         <f>'Genetic Algorithm'!B22</f>
-        <v>83.1</v>
+        <v>77.3</v>
       </c>
       <c r="F23" s="3">
         <f>'Genetic Algorithm'!C22</f>
-        <v>231.20518358531299</v>
+        <v>264.066954643629</v>
       </c>
       <c r="G23" s="20">
         <f>'Genetic Algorithm'!D22</f>
-        <v>314.30518358531299</v>
+        <v>341.36695464362901</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="4"/>
-        <v>-2.6316035981062647</v>
+        <v>5.7518446851390967</v>
       </c>
       <c r="I23" s="3" cm="1">
         <f t="array" ref="I23:K23">'Linear Programming Model'!E22:G22</f>
@@ -12295,18 +12217,18 @@
       </c>
       <c r="M23" s="3">
         <f>'Genetic Algorithm'!F22</f>
-        <v>488.83369330453598</v>
+        <v>605.47300215982796</v>
       </c>
       <c r="N23" s="20">
         <f>'Genetic Algorithm'!G22</f>
-        <v>575.03369330453597</v>
+        <v>691.673002159828</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="5"/>
-        <v>-0.89043548698105346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>19.212858007553937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>32</v>
       </c>
@@ -12365,7 +12287,7 @@
         <v>15.540540540540546</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>33</v>
       </c>
@@ -12424,7 +12346,7 @@
         <v>29.584580601972799</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>34</v>
       </c>
@@ -12483,7 +12405,7 @@
         <v>24.782290951360249</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>35</v>
       </c>
@@ -12501,19 +12423,19 @@
       </c>
       <c r="E27" s="3">
         <f>'Genetic Algorithm'!B26</f>
-        <v>82.8</v>
+        <v>87</v>
       </c>
       <c r="F27" s="3">
         <f>'Genetic Algorithm'!C26</f>
-        <v>134.24838012959</v>
+        <v>199.44060475161999</v>
       </c>
       <c r="G27" s="20">
         <f>'Genetic Algorithm'!D26</f>
-        <v>217.04838012958999</v>
+        <v>286.44060475162001</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="4"/>
-        <v>-5.5490077765056673</v>
+        <v>24.647782746570932</v>
       </c>
       <c r="I27" s="3" cm="1">
         <f t="array" ref="I27:K27">'Linear Programming Model'!E26:G26</f>
@@ -12527,22 +12449,22 @@
       </c>
       <c r="L27" s="3">
         <f>'Genetic Algorithm'!E26</f>
-        <v>95.4</v>
+        <v>96.2</v>
       </c>
       <c r="M27" s="3">
         <f>'Genetic Algorithm'!F26</f>
-        <v>717.725701943844</v>
+        <v>477.31533477321801</v>
       </c>
       <c r="N27" s="20">
         <f>'Genetic Algorithm'!G26</f>
-        <v>813.12570194384398</v>
+        <v>573.515334773218</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="5"/>
-        <v>67.585676410520207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18.201841461916327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>36</v>
       </c>
@@ -12560,19 +12482,19 @@
       </c>
       <c r="E28" s="3">
         <f>'Genetic Algorithm'!B27</f>
-        <v>167.9</v>
+        <v>137.9</v>
       </c>
       <c r="F28" s="3">
         <f>'Genetic Algorithm'!C27</f>
-        <v>244.451403887688</v>
+        <v>244.62203023758099</v>
       </c>
       <c r="G28" s="20">
         <f>'Genetic Algorithm'!D27</f>
-        <v>412.35140388768798</v>
+        <v>382.52203023758102</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="4"/>
-        <v>54.323130197488027</v>
+        <v>43.159442454184521</v>
       </c>
       <c r="I28" s="3" cm="1">
         <f t="array" ref="I28:K28">'Linear Programming Model'!E27:G27</f>
@@ -12601,7 +12523,7 @@
         <v>-2.2361641794387315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>37</v>
       </c>
@@ -12660,7 +12582,7 @@
         <v>9.8118820109606446</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>38</v>
       </c>
@@ -12678,19 +12600,19 @@
       </c>
       <c r="E30" s="3">
         <f>'Genetic Algorithm'!B29</f>
-        <v>113.19999999999899</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="F30" s="3">
         <f>'Genetic Algorithm'!C29</f>
-        <v>138.50107991360699</v>
+        <v>0</v>
       </c>
       <c r="G30" s="20">
         <f>'Genetic Algorithm'!D29</f>
-        <v>251.701079913607</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="4"/>
-        <v>369.59156700299815</v>
+        <v>45.708955223880579</v>
       </c>
       <c r="I30" s="3" cm="1">
         <f t="array" ref="I30:K30">'Linear Programming Model'!E29:G29</f>
@@ -12704,22 +12626,22 @@
       </c>
       <c r="L30" s="3">
         <f>'Genetic Algorithm'!E29</f>
-        <v>83.6</v>
+        <v>113.19999999999899</v>
       </c>
       <c r="M30" s="3">
         <f>'Genetic Algorithm'!F29</f>
-        <v>97.032397408206904</v>
+        <v>103.943844492441</v>
       </c>
       <c r="N30" s="20">
         <f>'Genetic Algorithm'!G29</f>
-        <v>180.632397408206</v>
+        <v>217.14384449244099</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="5"/>
-        <v>-19.790232056746888</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-3.5773337067313489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>39</v>
       </c>
@@ -12778,7 +12700,7 @@
         <v>-0.43215456949067188</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
@@ -12837,7 +12759,7 @@
         <v>4.5977011494252924</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>41</v>
       </c>
@@ -12855,19 +12777,19 @@
       </c>
       <c r="E33" s="12">
         <f>'Genetic Algorithm'!B32</f>
-        <v>124.6</v>
+        <v>125.6</v>
       </c>
       <c r="F33" s="12">
         <f>'Genetic Algorithm'!C32</f>
-        <v>515.084233261338</v>
+        <v>572.92440604751505</v>
       </c>
       <c r="G33" s="24">
         <f>'Genetic Algorithm'!D32</f>
-        <v>639.68423326133802</v>
+        <v>698.52440604751496</v>
       </c>
       <c r="H33" s="13">
         <f>((G33-D33)/D33)*100</f>
-        <v>37.981931247053062</v>
+        <v>50.673944358825487</v>
       </c>
       <c r="I33" s="12">
         <f>'Linear Programming Model'!E32</f>
@@ -12883,23 +12805,23 @@
       </c>
       <c r="L33" s="12">
         <f>'Genetic Algorithm'!E32</f>
-        <v>17.399999999999999</v>
+        <v>28</v>
       </c>
       <c r="M33" s="12">
         <f>'Genetic Algorithm'!F32</f>
-        <v>8.2915766738660697</v>
+        <v>0</v>
       </c>
       <c r="N33" s="24">
         <f>'Genetic Algorithm'!G32</f>
-        <v>25.691576673865999</v>
+        <v>28</v>
       </c>
       <c r="O33" s="13">
         <f>((N33-K33)/K33)*100</f>
-        <v>-8.244369021907147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -12935,7 +12857,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="22"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -12987,7 +12909,7 @@
       </c>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -13057,7 +12979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>0</v>
       </c>
@@ -13143,7 +13065,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>1</v>
       </c>
@@ -13229,7 +13151,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>2</v>
       </c>
@@ -13315,7 +13237,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>3</v>
       </c>
@@ -13401,7 +13323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>4</v>
       </c>
@@ -13487,7 +13409,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>5</v>
       </c>
@@ -13573,7 +13495,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>7</v>
       </c>
@@ -13659,7 +13581,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>6</v>
       </c>
@@ -13745,7 +13667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>8</v>
       </c>
@@ -13831,7 +13753,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>9</v>
       </c>
@@ -13917,7 +13839,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>10</v>
       </c>
@@ -14003,7 +13925,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>11</v>
       </c>
@@ -14089,7 +14011,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>43</v>
       </c>
@@ -14175,7 +14097,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>44</v>
       </c>
@@ -14261,7 +14183,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>45</v>
       </c>
@@ -14347,7 +14269,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
         <v>46</v>
       </c>
@@ -14433,7 +14355,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>28</v>
       </c>
@@ -14520,7 +14442,7 @@
       </c>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>29</v>
       </c>
@@ -14607,7 +14529,7 @@
       </c>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
         <v>30</v>
       </c>
@@ -14694,7 +14616,7 @@
       </c>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>31</v>
       </c>
@@ -14781,7 +14703,7 @@
       </c>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
         <v>32</v>
       </c>
@@ -14868,7 +14790,7 @@
       </c>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>33</v>
       </c>
@@ -14954,7 +14876,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
         <v>34</v>
       </c>
@@ -15040,7 +14962,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
@@ -15058,13 +14980,13 @@
       <c r="E61" s="17">
         <v>7</v>
       </c>
-      <c r="F61" s="78">
+      <c r="F61" s="36">
         <f>'Linear Programming Model'!M26</f>
         <v>3</v>
       </c>
       <c r="G61" s="9">
         <f>'Genetic Algorithm'!M26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61" s="34" t="s">
         <v>35</v>
@@ -15126,7 +15048,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>36</v>
       </c>
@@ -15212,7 +15134,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>37</v>
       </c>
@@ -15298,7 +15220,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>38</v>
       </c>
@@ -15384,7 +15306,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>39</v>
       </c>
@@ -15470,7 +15392,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>40</v>
       </c>
@@ -15556,7 +15478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
         <v>41</v>
       </c>
@@ -15574,13 +15496,13 @@
       <c r="E67" s="16">
         <v>5</v>
       </c>
-      <c r="F67" s="79">
+      <c r="F67" s="37">
         <f>'Linear Programming Model'!M32</f>
         <v>2</v>
       </c>
       <c r="G67" s="13">
         <f>'Genetic Algorithm'!M32</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="35" t="s">
         <v>41</v>
@@ -15642,7 +15564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U68" s="30" t="s">
         <v>0</v>
       </c>
@@ -15662,7 +15584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U69" s="31" t="s">
         <v>1</v>
       </c>
@@ -15682,7 +15604,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U70" s="31" t="s">
         <v>2</v>
       </c>
@@ -15702,7 +15624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U71" s="31" t="s">
         <v>3</v>
       </c>
@@ -15722,7 +15644,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U72" s="31" t="s">
         <v>4</v>
       </c>
@@ -15742,7 +15664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U73" s="31" t="s">
         <v>5</v>
       </c>
@@ -15762,7 +15684,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U74" s="31" t="s">
         <v>7</v>
       </c>
@@ -15782,7 +15704,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U75" s="31" t="s">
         <v>6</v>
       </c>
@@ -15802,7 +15724,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U76" s="31" t="s">
         <v>8</v>
       </c>
@@ -15822,7 +15744,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U77" s="31" t="s">
         <v>9</v>
       </c>
@@ -15842,7 +15764,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U78" s="31" t="s">
         <v>10</v>
       </c>
@@ -15862,7 +15784,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U79" s="31" t="s">
         <v>11</v>
       </c>
@@ -15882,7 +15804,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U80" s="34" t="s">
         <v>43</v>
       </c>
@@ -15902,7 +15824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U81" s="34" t="s">
         <v>44</v>
       </c>
@@ -15922,7 +15844,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U82" s="34" t="s">
         <v>45</v>
       </c>
@@ -15942,7 +15864,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="21:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U83" s="35" t="s">
         <v>46</v>
       </c>
@@ -15964,7 +15886,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U84" s="34" t="s">
         <v>28</v>
       </c>
@@ -15986,7 +15908,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U85" s="34" t="s">
         <v>29</v>
       </c>
@@ -16006,7 +15928,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="86" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U86" s="34" t="s">
         <v>30</v>
       </c>
@@ -16026,7 +15948,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U87" s="34" t="s">
         <v>31</v>
       </c>
@@ -16046,7 +15968,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="88" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U88" s="34" t="s">
         <v>32</v>
       </c>
@@ -16066,7 +15988,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U89" s="34" t="s">
         <v>33</v>
       </c>
@@ -16086,7 +16008,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="90" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U90" s="34" t="s">
         <v>34</v>
       </c>
@@ -16106,7 +16028,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U91" s="34" t="s">
         <v>35</v>
       </c>
@@ -16126,7 +16048,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U92" s="34" t="s">
         <v>36</v>
       </c>
@@ -16146,7 +16068,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="93" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U93" s="34" t="s">
         <v>37</v>
       </c>
@@ -16166,7 +16088,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U94" s="34" t="s">
         <v>38</v>
       </c>
@@ -16186,7 +16108,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="95" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U95" s="34" t="s">
         <v>39</v>
       </c>
@@ -16206,7 +16128,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U96" s="34" t="s">
         <v>40</v>
       </c>
@@ -16226,7 +16148,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="21:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="21:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U97" s="35" t="s">
         <v>41</v>
       </c>

--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB31C6D-1EC5-4E32-A2F9-ADAE0ED45DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920FE5AD-CDCD-433F-819C-119BF2500908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Programming Model" sheetId="3" r:id="rId1"/>
@@ -10904,8 +10904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
